--- a/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>1.228801342512901</v>
+      </c>
+      <c r="C2">
+        <v>-1.080436829583334</v>
+      </c>
+      <c r="D2">
+        <v>-0.9159465489942188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>-1.009410721433079</v>
+      </c>
+      <c r="C3">
+        <v>-1.157223949221989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>-0.8197619717108081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>1.313022879501227</v>
+      </c>
+      <c r="C5">
+        <v>1.831355410592372</v>
+      </c>
+      <c r="D5">
+        <v>0.0491500565775424</v>
+      </c>
+      <c r="E5">
+        <v>0.4783173560598028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>-0.8907098024810787</v>
-      </c>
-      <c r="C2">
-        <v>0.2922858664967996</v>
-      </c>
-      <c r="D2">
-        <v>0.7908515177865596</v>
-      </c>
-      <c r="E2">
-        <v>1.106712114220141</v>
-      </c>
-      <c r="F2">
-        <v>0.5463986483436925</v>
-      </c>
-      <c r="G2">
-        <v>0.1043786536307801</v>
-      </c>
-      <c r="H2">
-        <v>0.199958922716326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>2.478560108764154</v>
+      </c>
+      <c r="C6">
+        <v>0.1084912767924415</v>
+      </c>
+      <c r="D6">
+        <v>0.056914399907911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>-0.05710005588708969</v>
-      </c>
-      <c r="C3">
-        <v>0.7089784310276128</v>
-      </c>
-      <c r="D3">
-        <v>1.260414476040624</v>
-      </c>
-      <c r="E3">
-        <v>0.5270645186648206</v>
-      </c>
-      <c r="F3">
-        <v>0.0912498709480411</v>
-      </c>
-      <c r="G3">
-        <v>0.2326487722021644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>0.9823585774621477</v>
+      </c>
+      <c r="C7">
+        <v>0.2763430027031361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>0.6878129763496565</v>
-      </c>
-      <c r="C4">
-        <v>1.255723702546568</v>
-      </c>
-      <c r="D4">
-        <v>0.5373973502568478</v>
-      </c>
-      <c r="E4">
-        <v>0.09076152653082509</v>
-      </c>
-      <c r="F4">
-        <v>0.2324490370652547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.5477602097810934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1.52774199194804</v>
-      </c>
-      <c r="C5">
-        <v>0.6031810409761892</v>
-      </c>
-      <c r="D5">
-        <v>-0.02825003837562348</v>
-      </c>
-      <c r="E5">
-        <v>0.2486836326849305</v>
-      </c>
-      <c r="F5">
-        <v>0.2376107522510077</v>
-      </c>
-      <c r="G5">
-        <v>0.2952816573192606</v>
-      </c>
-      <c r="H5">
-        <v>0.2215454798395016</v>
-      </c>
-      <c r="I5">
-        <v>0.002521107979442494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>0.1844400368753331</v>
+      </c>
+      <c r="C9">
+        <v>0.527803623728787</v>
+      </c>
+      <c r="D9">
+        <v>0.3533384202939721</v>
+      </c>
+      <c r="E9">
+        <v>-0.03459444553083579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1.195235277956019</v>
-      </c>
-      <c r="C6">
-        <v>0.1237950650863557</v>
-      </c>
-      <c r="D6">
-        <v>-0.006471823521037312</v>
-      </c>
-      <c r="E6">
-        <v>0.2698368003081548</v>
-      </c>
-      <c r="F6">
-        <v>0.3231940623182339</v>
-      </c>
-      <c r="G6">
-        <v>0.171723360674333</v>
-      </c>
-      <c r="H6">
-        <v>-0.01447451873649236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>0.6435495991893394</v>
+      </c>
+      <c r="C10">
+        <v>0.4476503184722443</v>
+      </c>
+      <c r="D10">
+        <v>-0.1169352827385468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.5776183701573137</v>
-      </c>
-      <c r="C7">
-        <v>0.1146106192641174</v>
-      </c>
-      <c r="D7">
-        <v>0.07582090191516078</v>
-      </c>
-      <c r="E7">
-        <v>0.3451286786382135</v>
-      </c>
-      <c r="F7">
-        <v>0.1931415517296553</v>
-      </c>
-      <c r="G7">
-        <v>-0.05150315963643809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>0.7710268398487434</v>
+      </c>
+      <c r="C11">
+        <v>-0.181480349819779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0.3327708191769349</v>
-      </c>
-      <c r="C8">
-        <v>0.1325729404655381</v>
-      </c>
-      <c r="D8">
-        <v>0.2531665312243224</v>
-      </c>
-      <c r="E8">
-        <v>0.2033681953949841</v>
-      </c>
-      <c r="F8">
-        <v>-0.0420729030719747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>0.1493691900880067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>0.2577990869905554</v>
-      </c>
-      <c r="C9">
-        <v>0.2844033165351734</v>
-      </c>
-      <c r="D9">
-        <v>0.1507272729987541</v>
-      </c>
-      <c r="E9">
-        <v>-0.03648549317292837</v>
-      </c>
-      <c r="F9">
-        <v>0.1793839234093445</v>
-      </c>
-      <c r="G9">
-        <v>0.07235506315851692</v>
-      </c>
-      <c r="H9">
-        <v>0.2362435243673126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>0.01650763325345314</v>
+      </c>
+      <c r="C13">
+        <v>-0.2978288002599093</v>
+      </c>
+      <c r="D13">
+        <v>0.1878166893129039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.3806278946782226</v>
-      </c>
-      <c r="C10">
-        <v>0.1744017356543338</v>
-      </c>
-      <c r="D10">
-        <v>-0.07752505792059769</v>
-      </c>
-      <c r="E10">
-        <v>0.1832268831984909</v>
-      </c>
-      <c r="F10">
-        <v>0.07546345042269842</v>
-      </c>
-      <c r="G10">
-        <v>0.2277848385847532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>-0.1833622636600023</v>
+      </c>
+      <c r="C14">
+        <v>0.1454093818234756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.314507656447415</v>
-      </c>
-      <c r="C11">
-        <v>-0.0436669977807545</v>
-      </c>
-      <c r="D11">
-        <v>0.1218324399050106</v>
-      </c>
-      <c r="E11">
-        <v>0.07991809372535819</v>
-      </c>
-      <c r="F11">
-        <v>0.2312394824842153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>0.03178997173355649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.07245843728950624</v>
-      </c>
-      <c r="C12">
-        <v>0.1501273102836948</v>
-      </c>
-      <c r="D12">
-        <v>0.02951154473143142</v>
-      </c>
-      <c r="E12">
-        <v>0.2351917399571024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.1795769249753906</v>
-      </c>
-      <c r="C13">
-        <v>0.03767258956110692</v>
-      </c>
-      <c r="D13">
-        <v>0.2249317086333847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.1075262777605026</v>
-      </c>
-      <c r="C14">
-        <v>0.2431346272019352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.2861721891758718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.228801342512901</v>
+        <v>-0.4458934228143729</v>
       </c>
       <c r="C2">
-        <v>-1.080436829583334</v>
+        <v>-0.1134040234363881</v>
       </c>
       <c r="D2">
-        <v>-0.9159465489942188</v>
+        <v>0.6219785646361177</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-1.009410721433079</v>
+        <v>-0.04237791528613299</v>
       </c>
       <c r="C3">
-        <v>-1.157223949221989</v>
+        <v>0.3807011644083477</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.8197619717108081</v>
+        <v>0.7181631419195285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.313022879501227</v>
+        <v>1.049089967442578</v>
       </c>
       <c r="C5">
-        <v>1.831355410592372</v>
+        <v>0.8524940945699551</v>
       </c>
       <c r="D5">
-        <v>0.0491500565775424</v>
+        <v>-0.1034953623938322</v>
       </c>
       <c r="E5">
-        <v>0.4783173560598028</v>
+        <v>0.0926409719578045</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2.478560108764154</v>
+        <v>1.499698792741737</v>
       </c>
       <c r="C6">
-        <v>0.1084912767924415</v>
+        <v>-0.0441541421789331</v>
       </c>
       <c r="D6">
-        <v>0.056914399907911</v>
+        <v>-0.3287619841940873</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.9823585774621477</v>
+        <v>0.8297131584907731</v>
       </c>
       <c r="C7">
-        <v>0.2763430027031361</v>
+        <v>-0.1093333813988623</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.5477602097810934</v>
+        <v>0.1620838256790951</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1844400368753331</v>
+        <v>0.3211787666311243</v>
       </c>
       <c r="C9">
-        <v>0.527803623728787</v>
+        <v>0.112909106075748</v>
       </c>
       <c r="D9">
-        <v>0.3533384202939721</v>
+        <v>0.03134352168291979</v>
       </c>
       <c r="E9">
-        <v>-0.03459444553083579</v>
+        <v>-0.06584948318657535</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6435495991893394</v>
+        <v>0.2286550815363005</v>
       </c>
       <c r="C10">
-        <v>0.4476503184722443</v>
+        <v>0.125655419861192</v>
       </c>
       <c r="D10">
-        <v>-0.1169352827385468</v>
+        <v>-0.1481903203942864</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.7710268398487434</v>
+        <v>0.4490319412376911</v>
       </c>
       <c r="C11">
-        <v>-0.181480349819779</v>
+        <v>-0.2127353874755186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1493691900880067</v>
+        <v>0.1181141524322671</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.01650763325345314</v>
+        <v>-0.0001442643046098147</v>
       </c>
       <c r="C13">
-        <v>-0.2978288002599093</v>
+        <v>-0.008000482844254697</v>
       </c>
       <c r="D13">
-        <v>0.1878166893129039</v>
+        <v>0.2025442913845202</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.1833622636600023</v>
+        <v>0.1064660537556523</v>
       </c>
       <c r="C14">
-        <v>0.1454093818234756</v>
+        <v>0.1601369838950918</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.03178997173355649</v>
+        <v>0.04651757380517277</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.1441822662032796</v>
+      </c>
+      <c r="C2">
+        <v>-0.7823109402054407</v>
+      </c>
+      <c r="D2">
+        <v>-0.4219306926966843</v>
+      </c>
+      <c r="E2">
+        <v>0.6485709394450919</v>
+      </c>
+      <c r="F2">
+        <v>-0.8344434942775328</v>
+      </c>
+      <c r="G2">
+        <v>0.2086509824590546</v>
+      </c>
+      <c r="H2">
+        <v>-0.3940050386433453</v>
+      </c>
+      <c r="I2">
+        <v>-0.09916379587467392</v>
+      </c>
+      <c r="J2">
+        <v>-0.2957188827490889</v>
+      </c>
+      <c r="K2">
+        <v>0.3436294217331792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.6901837905312393</v>
+      </c>
+      <c r="C3">
+        <v>0.8453612703525113</v>
+      </c>
+      <c r="D3">
+        <v>-0.737293335015835</v>
+      </c>
+      <c r="E3">
+        <v>0.2390017420044216</v>
+      </c>
+      <c r="F3">
+        <v>-0.2848338443436693</v>
+      </c>
+      <c r="G3">
+        <v>-0.02717390506639757</v>
+      </c>
+      <c r="H3">
+        <v>-0.2204847639499817</v>
+      </c>
+      <c r="I3">
+        <v>0.4276289196353673</v>
+      </c>
+      <c r="J3">
+        <v>-0.7200733976650109</v>
+      </c>
+      <c r="K3">
+        <v>-0.5172359743794172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.9555163177855295</v>
+      </c>
+      <c r="C4">
+        <v>0.4248230659695739</v>
+      </c>
+      <c r="D4">
+        <v>-0.2879226477776387</v>
+      </c>
+      <c r="E4">
+        <v>0.007726510964122496</v>
+      </c>
+      <c r="F4">
+        <v>-0.1682568006951943</v>
+      </c>
+      <c r="G4">
+        <v>0.4587216413262007</v>
+      </c>
+      <c r="H4">
+        <v>-0.6783402755435363</v>
+      </c>
+      <c r="I4">
+        <v>-0.4777023360051049</v>
+      </c>
+      <c r="J4">
+        <v>0.02129239155580019</v>
+      </c>
+      <c r="K4">
+        <v>0.418120844798879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.548615619474635</v>
+      </c>
+      <c r="C5">
+        <v>0.07171417623775381</v>
+      </c>
+      <c r="D5">
+        <v>-0.1264108386571928</v>
+      </c>
+      <c r="E5">
+        <v>0.4422176417694744</v>
+      </c>
+      <c r="F5">
+        <v>-0.6515397398626517</v>
+      </c>
+      <c r="G5">
+        <v>-0.4662833730370599</v>
+      </c>
+      <c r="H5">
+        <v>0.0331322055742346</v>
+      </c>
+      <c r="I5">
+        <v>0.4331160470866762</v>
+      </c>
+      <c r="J5">
+        <v>-0.5528412341022446</v>
+      </c>
+      <c r="K5">
+        <v>0.02988981476144668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.2404836290197812</v>
+      </c>
+      <c r="C6">
+        <v>0.491361209113974</v>
+      </c>
+      <c r="D6">
+        <v>-0.6322043302041342</v>
+      </c>
+      <c r="E6">
+        <v>-0.4647154195027307</v>
+      </c>
+      <c r="F6">
+        <v>0.05342142975466019</v>
+      </c>
+      <c r="G6">
+        <v>0.4450157872357245</v>
+      </c>
+      <c r="H6">
+        <v>-0.5396623859363024</v>
+      </c>
+      <c r="I6">
+        <v>0.0441507512249323</v>
+      </c>
+      <c r="J6">
+        <v>-0.5782321976441027</v>
+      </c>
+      <c r="K6">
+        <v>-0.5541587676270103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-0.7297856379490764</v>
+      </c>
+      <c r="C7">
+        <v>-0.4218506926145831</v>
+      </c>
+      <c r="D7">
+        <v>0.0574494218427721</v>
+      </c>
+      <c r="E7">
+        <v>0.4436722901122985</v>
+      </c>
+      <c r="F7">
+        <v>-0.5287574474515311</v>
+      </c>
+      <c r="G7">
+        <v>0.04807012991656891</v>
+      </c>
+      <c r="H7">
+        <v>-0.5723772117160764</v>
+      </c>
+      <c r="I7">
+        <v>-0.548038724349132</v>
+      </c>
+      <c r="J7">
+        <v>-0.4493584090633438</v>
+      </c>
+      <c r="K7">
+        <v>0.02185123415134871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.2693935401736124</v>
+      </c>
+      <c r="C8">
+        <v>0.5422726515995386</v>
+      </c>
+      <c r="D8">
+        <v>-0.5189381514912333</v>
+      </c>
+      <c r="E8">
+        <v>0.02862414282379759</v>
+      </c>
+      <c r="F8">
+        <v>-0.5533547859102488</v>
+      </c>
+      <c r="G8">
+        <v>-0.5489102215958721</v>
+      </c>
+      <c r="H8">
+        <v>-0.4448481757029197</v>
+      </c>
+      <c r="I8">
+        <v>0.02690137354000052</v>
+      </c>
+      <c r="J8">
+        <v>-0.4193803518497821</v>
+      </c>
+      <c r="K8">
+        <v>-0.26392099008051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.5150269411385472</v>
+      </c>
+      <c r="C9">
+        <v>0.1069220079766862</v>
+      </c>
+      <c r="D9">
+        <v>-0.5507670810504911</v>
+      </c>
+      <c r="E9">
+        <v>-0.5116486142986025</v>
+      </c>
+      <c r="F9">
+        <v>-0.4156058644256302</v>
+      </c>
+      <c r="G9">
+        <v>0.05472346949681112</v>
+      </c>
+      <c r="H9">
+        <v>-0.3891011948095263</v>
+      </c>
+      <c r="I9">
+        <v>-0.2349650178232874</v>
+      </c>
+      <c r="J9">
+        <v>-0.2330709237742658</v>
+      </c>
+      <c r="K9">
+        <v>-0.00665683755824481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.7528950230576259</v>
+      </c>
+      <c r="C10">
+        <v>-0.4675642987962694</v>
+      </c>
+      <c r="D10">
+        <v>-0.4013424164891072</v>
+      </c>
+      <c r="E10">
+        <v>0.04327102724283641</v>
+      </c>
+      <c r="F10">
+        <v>-0.3794741585856582</v>
+      </c>
+      <c r="G10">
+        <v>-0.2336577996235951</v>
+      </c>
+      <c r="H10">
+        <v>-0.2304317121927086</v>
+      </c>
+      <c r="I10">
+        <v>-0.003347872077366504</v>
+      </c>
+      <c r="J10">
+        <v>-0.2071683925268235</v>
+      </c>
+      <c r="K10">
+        <v>0.03478528783266921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.7222580074198877</v>
+      </c>
+      <c r="C11">
+        <v>0.1555664930067342</v>
+      </c>
+      <c r="D11">
+        <v>-0.3939873381658584</v>
+      </c>
+      <c r="E11">
+        <v>-0.243911444251697</v>
+      </c>
+      <c r="F11">
+        <v>-0.2219477356151164</v>
+      </c>
+      <c r="G11">
+        <v>-0.006975566101301595</v>
+      </c>
+      <c r="H11">
+        <v>-0.2065833137701255</v>
+      </c>
+      <c r="I11">
+        <v>0.03484708564340039</v>
+      </c>
+      <c r="J11">
+        <v>-0.112098516080499</v>
+      </c>
+      <c r="K11">
+        <v>-0.7471277126881882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.63635720455717</v>
+      </c>
+      <c r="C12">
+        <v>-0.1065121760779313</v>
+      </c>
+      <c r="D12">
+        <v>-0.2239310073700678</v>
+      </c>
+      <c r="E12">
+        <v>0.01893790174841439</v>
+      </c>
+      <c r="F12">
+        <v>-0.177735271297875</v>
+      </c>
+      <c r="G12">
+        <v>0.0582484221924541</v>
+      </c>
+      <c r="H12">
+        <v>-0.0859823477184973</v>
+      </c>
+      <c r="I12">
+        <v>-0.7218231773674587</v>
+      </c>
+      <c r="J12">
+        <v>0.351476302423462</v>
+      </c>
+      <c r="K12">
+        <v>0.2071736477181808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.3892314682600225</v>
+      </c>
+      <c r="C13">
+        <v>0.06279941057417548</v>
+      </c>
+      <c r="D13">
+        <v>-0.1891719507161828</v>
+      </c>
+      <c r="E13">
+        <v>0.04982729109261119</v>
+      </c>
+      <c r="F13">
+        <v>-0.08929569910996929</v>
+      </c>
+      <c r="G13">
+        <v>-0.7280956803316543</v>
+      </c>
+      <c r="H13">
+        <v>0.3460949529956512</v>
+      </c>
+      <c r="I13">
+        <v>0.2016942567498672</v>
+      </c>
+      <c r="J13">
+        <v>-0.2325543060878318</v>
+      </c>
+      <c r="K13">
+        <v>-0.09462383297994317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.2883047256316092</v>
+      </c>
+      <c r="C14">
+        <v>0.1059606994132624</v>
+      </c>
+      <c r="D14">
+        <v>-0.08291550451226179</v>
+      </c>
+      <c r="E14">
+        <v>-0.7133295375514309</v>
+      </c>
+      <c r="F14">
+        <v>0.3619702442297547</v>
+      </c>
+      <c r="G14">
+        <v>0.2161125889389876</v>
+      </c>
+      <c r="H14">
+        <v>-0.2175217565100965</v>
+      </c>
+      <c r="I14">
+        <v>-0.07974362579264968</v>
+      </c>
+      <c r="J14">
+        <v>0.5255726688676128</v>
+      </c>
+      <c r="K14">
+        <v>0.009783324924931003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.1398967012588671</v>
+      </c>
+      <c r="C15">
+        <v>-0.6795646352580863</v>
+      </c>
+      <c r="D15">
+        <v>0.3655623446106223</v>
+      </c>
+      <c r="E15">
+        <v>0.2276294702574565</v>
+      </c>
+      <c r="F15">
+        <v>-0.207551418609287</v>
+      </c>
+      <c r="G15">
+        <v>-0.06964632646755847</v>
+      </c>
+      <c r="H15">
+        <v>0.5357346252024053</v>
+      </c>
+      <c r="I15">
+        <v>0.01990265495323332</v>
+      </c>
+      <c r="J15">
+        <v>-0.9642855654334886</v>
+      </c>
+      <c r="K15">
+        <v>0.1416101621793027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.3566212522130081</v>
+      </c>
+      <c r="C16">
+        <v>0.2408781669286367</v>
+      </c>
+      <c r="D16">
+        <v>-0.201669386063788</v>
+      </c>
+      <c r="E16">
+        <v>-0.06160022198258297</v>
+      </c>
+      <c r="F16">
+        <v>0.5432011320559681</v>
+      </c>
+      <c r="G16">
+        <v>0.02751106584015389</v>
+      </c>
+      <c r="H16">
+        <v>-0.9567083695411626</v>
+      </c>
+      <c r="I16">
+        <v>0.1491932208263926</v>
+      </c>
+      <c r="J16">
+        <v>-0.1890811605093071</v>
+      </c>
+      <c r="K16">
+        <v>0.2245932989571786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.04106405508430477</v>
+      </c>
+      <c r="C17">
+        <v>-0.09020770983603157</v>
+      </c>
+      <c r="D17">
+        <v>0.574340261490599</v>
+      </c>
+      <c r="E17">
+        <v>0.04038188063500339</v>
+      </c>
+      <c r="F17">
+        <v>-0.9383177816753954</v>
+      </c>
+      <c r="G17">
+        <v>0.1659231998015854</v>
+      </c>
+      <c r="H17">
+        <v>-0.1718522909907078</v>
+      </c>
+      <c r="I17">
+        <v>0.2416723320200759</v>
+      </c>
+      <c r="J17">
+        <v>3.460418729544259</v>
+      </c>
+      <c r="K17">
+        <v>11.17747195935915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.09163038277596375</v>
+      </c>
+      <c r="C18">
+        <v>0.5254518873873821</v>
+      </c>
+      <c r="D18">
+        <v>0.0563325815835081</v>
+      </c>
+      <c r="E18">
+        <v>-0.9365688629075258</v>
+      </c>
+      <c r="F18">
+        <v>0.1700585035915123</v>
+      </c>
+      <c r="G18">
+        <v>-0.1679855244347674</v>
+      </c>
+      <c r="H18">
+        <v>0.2455504661863651</v>
+      </c>
+      <c r="I18">
+        <v>3.464294580983429</v>
+      </c>
+      <c r="J18">
+        <v>11.18135224550135</v>
+      </c>
+      <c r="K18">
+        <v>-6.985713389843351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.4973635377343007</v>
+      </c>
+      <c r="C19">
+        <v>0.06375933282195359</v>
+      </c>
+      <c r="D19">
+        <v>-0.9409636838269499</v>
+      </c>
+      <c r="E19">
+        <v>0.1688409188229139</v>
+      </c>
+      <c r="F19">
+        <v>-0.1698908006129778</v>
+      </c>
+      <c r="G19">
+        <v>0.2437493795404109</v>
+      </c>
+      <c r="H19">
+        <v>3.462492115281467</v>
+      </c>
+      <c r="I19">
+        <v>11.17954330985222</v>
+      </c>
+      <c r="J19">
+        <v>-6.987519263848878</v>
+      </c>
+      <c r="K19">
+        <v>1.062479867090283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.01533165888309251</v>
+      </c>
+      <c r="C20">
+        <v>-0.9270286439345783</v>
+      </c>
+      <c r="D20">
+        <v>0.1646188094254909</v>
+      </c>
+      <c r="E20">
+        <v>-0.1695859208010793</v>
+      </c>
+      <c r="F20">
+        <v>0.2430357067905741</v>
+      </c>
+      <c r="G20">
+        <v>3.461991373938583</v>
+      </c>
+      <c r="H20">
+        <v>11.17900002583154</v>
+      </c>
+      <c r="I20">
+        <v>-6.98805410991042</v>
+      </c>
+      <c r="J20">
+        <v>1.061943279934518</v>
+      </c>
+      <c r="K20">
+        <v>2.66194379000753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.709833574659644</v>
+      </c>
+      <c r="C21">
+        <v>0.09010584479324929</v>
+      </c>
+      <c r="D21">
+        <v>-0.1590789551758438</v>
+      </c>
+      <c r="E21">
+        <v>0.2326508172452194</v>
+      </c>
+      <c r="F21">
+        <v>3.456034814857401</v>
+      </c>
+      <c r="G21">
+        <v>11.17225693833956</v>
+      </c>
+      <c r="H21">
+        <v>-6.994695621409734</v>
+      </c>
+      <c r="I21">
+        <v>1.055300075443688</v>
+      </c>
+      <c r="J21">
+        <v>2.655295898749082</v>
+      </c>
+      <c r="K21">
+        <v>-3.225576310723604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.1692392724498348</v>
+      </c>
+      <c r="C22">
+        <v>-0.2127872400912742</v>
+      </c>
+      <c r="D22">
+        <v>0.2163713956266418</v>
+      </c>
+      <c r="E22">
+        <v>3.430860022654862</v>
+      </c>
+      <c r="F22">
+        <v>11.14890444542556</v>
+      </c>
+      <c r="G22">
+        <v>-7.0183600656016</v>
+      </c>
+      <c r="H22">
+        <v>1.031674022284302</v>
+      </c>
+      <c r="I22">
+        <v>2.631669520854345</v>
+      </c>
+      <c r="J22">
+        <v>-3.249204480385829</v>
+      </c>
+      <c r="K22">
+        <v>-6.16833013693094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.3816815746763487</v>
+      </c>
+      <c r="C23">
+        <v>0.3082759148860789</v>
+      </c>
+      <c r="D23">
+        <v>3.478606630174156</v>
+      </c>
+      <c r="E23">
+        <v>11.20269000122705</v>
+      </c>
+      <c r="F23">
+        <v>-6.96523417782231</v>
+      </c>
+      <c r="G23">
+        <v>1.084849207164317</v>
+      </c>
+      <c r="H23">
+        <v>2.684844483405562</v>
+      </c>
+      <c r="I23">
+        <v>-3.196030142741611</v>
+      </c>
+      <c r="J23">
+        <v>-6.115155727291738</v>
+      </c>
+      <c r="K23">
+        <v>1.384844230713178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3175905072817775</v>
+      </c>
+      <c r="C24">
+        <v>3.467135489562088</v>
+      </c>
+      <c r="D24">
+        <v>11.2039786754933</v>
+      </c>
+      <c r="E24">
+        <v>-6.968743421085121</v>
+      </c>
+      <c r="F24">
+        <v>1.082873796336708</v>
+      </c>
+      <c r="G24">
+        <v>2.682411331416741</v>
+      </c>
+      <c r="H24">
+        <v>-3.198330640960896</v>
+      </c>
+      <c r="I24">
+        <v>-6.117494238650668</v>
+      </c>
+      <c r="J24">
+        <v>1.382516575936537</v>
+      </c>
+      <c r="K24">
+        <v>-0.1384332513066659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>3.421540994125134</v>
+      </c>
+      <c r="C25">
+        <v>11.22297838923491</v>
+      </c>
+      <c r="D25">
+        <v>-6.982379537777515</v>
+      </c>
+      <c r="E25">
+        <v>1.084199994641718</v>
+      </c>
+      <c r="F25">
+        <v>2.676897071915942</v>
+      </c>
+      <c r="G25">
+        <v>-3.200780620084476</v>
+      </c>
+      <c r="H25">
+        <v>-6.121308782232121</v>
+      </c>
+      <c r="I25">
+        <v>1.379305948464088</v>
+      </c>
+      <c r="J25">
+        <v>-0.1419103359742027</v>
+      </c>
+      <c r="K25">
+        <v>-1.260845421515345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>11.29086276400319</v>
+      </c>
+      <c r="C26">
+        <v>-7.015295317827391</v>
+      </c>
+      <c r="D26">
+        <v>1.107771466225127</v>
+      </c>
+      <c r="E26">
+        <v>2.674228618480634</v>
+      </c>
+      <c r="F26">
+        <v>-3.19030706408656</v>
+      </c>
+      <c r="G26">
+        <v>-6.117182367081877</v>
+      </c>
+      <c r="H26">
+        <v>1.38653705519455</v>
+      </c>
+      <c r="I26">
+        <v>-0.1361854246972962</v>
+      </c>
+      <c r="J26">
+        <v>-1.254388904694484</v>
+      </c>
+      <c r="K26">
+        <v>0.4342048567541828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-6.669033777989898</v>
+      </c>
+      <c r="C27">
+        <v>0.4482360845693293</v>
+      </c>
+      <c r="D27">
+        <v>2.722477489425908</v>
+      </c>
+      <c r="E27">
+        <v>-3.378484112143658</v>
+      </c>
+      <c r="F27">
+        <v>-6.170868949111164</v>
+      </c>
+      <c r="G27">
+        <v>1.281115101779715</v>
+      </c>
+      <c r="H27">
+        <v>-0.2152031472323356</v>
+      </c>
+      <c r="I27">
+        <v>-1.344366130259007</v>
+      </c>
+      <c r="J27">
+        <v>0.3495140239460918</v>
+      </c>
+      <c r="K27">
+        <v>0.6984190118132061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>4.210091393357278</v>
+      </c>
+      <c r="C28">
+        <v>-1.562937356575949</v>
+      </c>
+      <c r="D28">
+        <v>-3.794203326258527</v>
+      </c>
+      <c r="E28">
+        <v>-4.255321313711127</v>
+      </c>
+      <c r="F28">
+        <v>0.938378492792465</v>
+      </c>
+      <c r="G28">
+        <v>-1.123619574124447</v>
+      </c>
+      <c r="H28">
+        <v>-1.043879914871906</v>
+      </c>
+      <c r="I28">
+        <v>0.5876286236853809</v>
+      </c>
+      <c r="J28">
+        <v>0.4020489852805511</v>
+      </c>
+      <c r="K28">
+        <v>0.8055862183420032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1.723883263261671</v>
+      </c>
+      <c r="C29">
+        <v>-0.4491589556872517</v>
+      </c>
+      <c r="D29">
+        <v>-5.912074402456263</v>
+      </c>
+      <c r="E29">
+        <v>-0.219640700320221</v>
+      </c>
+      <c r="F29">
+        <v>0.4378993869796115</v>
+      </c>
+      <c r="G29">
+        <v>-1.094424786823506</v>
+      </c>
+      <c r="H29">
+        <v>-0.1602844470244723</v>
+      </c>
+      <c r="I29">
+        <v>0.8058399289251741</v>
+      </c>
+      <c r="J29">
+        <v>1.040125505920549</v>
+      </c>
+      <c r="K29">
+        <v>0.275127559129517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-0.484750630486928</v>
+      </c>
+      <c r="C30">
+        <v>-7.130197388607401</v>
+      </c>
+      <c r="D30">
+        <v>0.7487790802283345</v>
+      </c>
+      <c r="E30">
+        <v>0.3439864961411943</v>
+      </c>
+      <c r="F30">
+        <v>-1.613662268308823</v>
+      </c>
+      <c r="G30">
+        <v>0.1963194352318912</v>
+      </c>
+      <c r="H30">
+        <v>0.7760887394287744</v>
+      </c>
+      <c r="I30">
+        <v>0.8284725312201942</v>
+      </c>
+      <c r="J30">
+        <v>0.3741512868484866</v>
+      </c>
+      <c r="K30">
+        <v>-0.03044474960124607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-5.699115766757235</v>
+      </c>
+      <c r="C31">
+        <v>-0.751282002186199</v>
+      </c>
+      <c r="D31">
+        <v>0.6201049495048274</v>
+      </c>
+      <c r="E31">
+        <v>-1.036087793096089</v>
+      </c>
+      <c r="F31">
+        <v>-0.4095973037394214</v>
+      </c>
+      <c r="G31">
+        <v>0.8474512357624796</v>
+      </c>
+      <c r="H31">
+        <v>1.045596513053973</v>
+      </c>
+      <c r="I31">
+        <v>0.1466742623744866</v>
+      </c>
+      <c r="J31">
+        <v>-0.03424384045264928</v>
+      </c>
+      <c r="K31">
+        <v>0.0780717333310303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-4.080335362049181</v>
+      </c>
+      <c r="C32">
+        <v>-0.5857468708324438</v>
+      </c>
+      <c r="D32">
+        <v>1.834329151395276</v>
+      </c>
+      <c r="E32">
+        <v>-1.357041519685224</v>
+      </c>
+      <c r="F32">
+        <v>-0.1256048869366352</v>
+      </c>
+      <c r="G32">
+        <v>2.328765452824017</v>
+      </c>
+      <c r="H32">
+        <v>0.04931054127267079</v>
+      </c>
+      <c r="I32">
+        <v>-0.5911396661132463</v>
+      </c>
+      <c r="J32">
+        <v>0.6016011712277189</v>
+      </c>
+      <c r="K32">
+        <v>0.07539632269252369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-2.447367413194482</v>
+      </c>
+      <c r="C33">
+        <v>0.4519714962710439</v>
+      </c>
+      <c r="D33">
+        <v>0.6128170632468097</v>
+      </c>
+      <c r="E33">
+        <v>-0.2421374331595442</v>
+      </c>
+      <c r="F33">
+        <v>1.336929655948621</v>
+      </c>
+      <c r="G33">
+        <v>0.7760698493954675</v>
+      </c>
+      <c r="H33">
+        <v>-0.2922754742890896</v>
+      </c>
+      <c r="I33">
+        <v>0.1269031719677863</v>
+      </c>
+      <c r="J33">
+        <v>0.2807341674315602</v>
+      </c>
+      <c r="K33">
+        <v>0.1494610132816651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>-0.4458934228143729</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>-0.1134040234363881</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>0.6219785646361177</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>1.295420901956078</v>
+      </c>
+      <c r="F34">
+        <v>0.4046985847747094</v>
+      </c>
+      <c r="G34">
+        <v>-0.0413746297026984</v>
+      </c>
+      <c r="H34">
+        <v>0.2229895216479358</v>
+      </c>
+      <c r="I34">
+        <v>0.1458905693336053</v>
+      </c>
+      <c r="J34">
+        <v>0.2100486538045048</v>
+      </c>
+      <c r="K34">
+        <v>0.1736542934757928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>-0.04237791528613299</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>0.3807011644083477</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>1.395049986006469</v>
+      </c>
+      <c r="E35">
+        <v>0.4897000358310402</v>
+      </c>
+      <c r="F35">
+        <v>-0.117818221074342</v>
+      </c>
+      <c r="G35">
+        <v>0.2342969722710407</v>
+      </c>
+      <c r="H35">
+        <v>0.1930577024050574</v>
+      </c>
+      <c r="I35">
+        <v>0.1960185439830976</v>
+      </c>
+      <c r="J35">
+        <v>0.1726172989400906</v>
+      </c>
+      <c r="K35">
+        <v>-0.0398378471157852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>0.7181631419195285</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>1.212670387274311</v>
+      </c>
+      <c r="D36">
+        <v>0.4332478174976867</v>
+      </c>
+      <c r="E36">
+        <v>0.01060673022851391</v>
+      </c>
+      <c r="F36">
+        <v>0.2073371896668185</v>
+      </c>
+      <c r="G36">
+        <v>0.1571488048670705</v>
+      </c>
+      <c r="H36">
+        <v>0.2391537638524287</v>
+      </c>
+      <c r="I36">
+        <v>0.1795895845973958</v>
+      </c>
+      <c r="J36">
+        <v>-0.0522078634240134</v>
+      </c>
+      <c r="K36">
+        <v>0.1554041927524065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>1.049089967442578</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>0.8524940945699551</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>-0.1034953623938322</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>0.0926409719578045</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.2817820142332294</v>
+      </c>
+      <c r="G37">
+        <v>0.2471048324593182</v>
+      </c>
+      <c r="H37">
+        <v>0.1372923509155475</v>
+      </c>
+      <c r="I37">
+        <v>-0.0176548598599835</v>
+      </c>
+      <c r="J37">
+        <v>0.1749249672074162</v>
+      </c>
+      <c r="K37">
+        <v>0.05922484994728894</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>1.499698792741737</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>-0.0441541421789331</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>-0.3287619841940873</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.364049265015512</v>
+      </c>
+      <c r="F38">
+        <v>0.2996335898150517</v>
+      </c>
+      <c r="G38">
+        <v>-0.02422131480211695</v>
+      </c>
+      <c r="H38">
+        <v>-0.0602750603840726</v>
+      </c>
+      <c r="I38">
+        <v>0.1709439362303161</v>
+      </c>
+      <c r="J38">
+        <v>-0.0177576868546418</v>
+      </c>
+      <c r="K38">
+        <v>0.1805893421760477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.8297131584907731</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>-0.1093333813988623</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>-0.149365504330538</v>
+      </c>
+      <c r="E39">
+        <v>0.4098942053544007</v>
+      </c>
+      <c r="F39">
+        <v>0.118275380657624</v>
+      </c>
+      <c r="G39">
+        <v>-0.2053788393788762</v>
+      </c>
+      <c r="H39">
+        <v>0.1446257021677655</v>
+      </c>
+      <c r="I39">
+        <v>0.02702245046340312</v>
+      </c>
+      <c r="J39">
+        <v>0.1403712705894833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.1620838256790951</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.07681641198134087</v>
+      </c>
+      <c r="D40">
+        <v>0.1922801461665575</v>
+      </c>
+      <c r="E40">
+        <v>0.1301097104498279</v>
+      </c>
+      <c r="F40">
+        <v>-0.1147928477079057</v>
+      </c>
+      <c r="G40">
+        <v>0.1009473398404885</v>
+      </c>
+      <c r="H40">
+        <v>0.01371138136289382</v>
+      </c>
+      <c r="I40">
+        <v>0.1693893530264649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.3211787666311243</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>0.112909106075748</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.03134352168291979</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>-0.06584948318657535</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>0.08772013122193154</v>
+      </c>
+      <c r="G41">
+        <v>-0.03303126573478518</v>
+      </c>
+      <c r="H41">
+        <v>0.1652259373303855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.2286550815363005</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.125655419861192</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>-0.1481903203942864</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>0.09894893000052302</v>
+      </c>
+      <c r="F42">
+        <v>0.009054851222852406</v>
+      </c>
+      <c r="G42">
+        <v>0.1525441991306069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.4490319412376911</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>-0.2127353874755186</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>-0.01681838433105656</v>
+      </c>
+      <c r="E43">
+        <v>0.08464627132846159</v>
+      </c>
+      <c r="F43">
+        <v>0.1583473431356911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.1181141524322671</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>0.03707716401367983</v>
+      </c>
+      <c r="D44">
+        <v>-0.06405285468019969</v>
+      </c>
+      <c r="E44">
+        <v>0.2261740776897078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>-0.0001442643046098147</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>-0.008000482844254697</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.2025442913845202</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.1064660537556523</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.1601369838950918</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.04651757380517277</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.1441822662032796</v>
-      </c>
-      <c r="C2">
-        <v>-0.7823109402054407</v>
-      </c>
-      <c r="D2">
-        <v>-0.4219306926966843</v>
-      </c>
-      <c r="E2">
-        <v>0.6485709394450919</v>
-      </c>
-      <c r="F2">
-        <v>-0.8344434942775328</v>
-      </c>
-      <c r="G2">
-        <v>0.2086509824590546</v>
-      </c>
-      <c r="H2">
-        <v>-0.3940050386433453</v>
-      </c>
-      <c r="I2">
-        <v>-0.09916379587467392</v>
-      </c>
-      <c r="J2">
-        <v>-0.2957188827490889</v>
-      </c>
-      <c r="K2">
-        <v>0.3436294217331792</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-0.6901837905312393</v>
-      </c>
-      <c r="C3">
-        <v>0.8453612703525113</v>
-      </c>
-      <c r="D3">
-        <v>-0.737293335015835</v>
-      </c>
-      <c r="E3">
-        <v>0.2390017420044216</v>
-      </c>
-      <c r="F3">
-        <v>-0.2848338443436693</v>
-      </c>
-      <c r="G3">
-        <v>-0.02717390506639757</v>
-      </c>
-      <c r="H3">
-        <v>-0.2204847639499817</v>
-      </c>
-      <c r="I3">
-        <v>0.4276289196353673</v>
-      </c>
-      <c r="J3">
-        <v>-0.7200733976650109</v>
-      </c>
-      <c r="K3">
-        <v>-0.5172359743794172</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.9555163177855295</v>
-      </c>
-      <c r="C4">
-        <v>0.4248230659695739</v>
-      </c>
-      <c r="D4">
-        <v>-0.2879226477776387</v>
-      </c>
-      <c r="E4">
-        <v>0.007726510964122496</v>
-      </c>
-      <c r="F4">
-        <v>-0.1682568006951943</v>
-      </c>
-      <c r="G4">
-        <v>0.4587216413262007</v>
-      </c>
-      <c r="H4">
-        <v>-0.6783402755435363</v>
-      </c>
-      <c r="I4">
-        <v>-0.4777023360051049</v>
-      </c>
-      <c r="J4">
-        <v>0.02129239155580019</v>
-      </c>
-      <c r="K4">
-        <v>0.418120844798879</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>-0.548615619474635</v>
-      </c>
-      <c r="C5">
-        <v>0.07171417623775381</v>
-      </c>
-      <c r="D5">
-        <v>-0.1264108386571928</v>
-      </c>
-      <c r="E5">
-        <v>0.4422176417694744</v>
-      </c>
-      <c r="F5">
-        <v>-0.6515397398626517</v>
-      </c>
-      <c r="G5">
-        <v>-0.4662833730370599</v>
-      </c>
-      <c r="H5">
-        <v>0.0331322055742346</v>
-      </c>
-      <c r="I5">
-        <v>0.4331160470866762</v>
-      </c>
-      <c r="J5">
-        <v>-0.5528412341022446</v>
-      </c>
-      <c r="K5">
-        <v>0.02988981476144668</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>-0.2404836290197812</v>
-      </c>
-      <c r="C6">
-        <v>0.491361209113974</v>
-      </c>
-      <c r="D6">
-        <v>-0.6322043302041342</v>
-      </c>
-      <c r="E6">
-        <v>-0.4647154195027307</v>
-      </c>
-      <c r="F6">
-        <v>0.05342142975466019</v>
-      </c>
-      <c r="G6">
-        <v>0.4450157872357245</v>
-      </c>
-      <c r="H6">
-        <v>-0.5396623859363024</v>
-      </c>
-      <c r="I6">
-        <v>0.0441507512249323</v>
-      </c>
-      <c r="J6">
-        <v>-0.5782321976441027</v>
-      </c>
-      <c r="K6">
-        <v>-0.5541587676270103</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.7297856379490764</v>
+        <v>-0.05581773379672039</v>
       </c>
       <c r="C7">
-        <v>-0.4218506926145831</v>
+        <v>-0.5473915729937895</v>
       </c>
       <c r="D7">
-        <v>0.0574494218427721</v>
+        <v>-0.6568500599083356</v>
       </c>
       <c r="E7">
-        <v>0.4436722901122985</v>
+        <v>-0.3486774573447309</v>
       </c>
       <c r="F7">
-        <v>-0.5287574474515311</v>
+        <v>0.5768417817870565</v>
       </c>
       <c r="G7">
-        <v>0.04807012991656891</v>
+        <v>-0.8066322958499446</v>
       </c>
       <c r="H7">
-        <v>-0.5723772117160764</v>
+        <v>0.2072413603908874</v>
       </c>
       <c r="I7">
-        <v>-0.548038724349132</v>
+        <v>-0.3991637958746739</v>
       </c>
       <c r="J7">
-        <v>-0.4493584090633438</v>
+        <v>-0.09571888274908895</v>
       </c>
       <c r="K7">
-        <v>0.02185123415134871</v>
+        <v>-0.2966996203891837</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2693935401736124</v>
+        <v>-0.9251031577428906</v>
       </c>
       <c r="C8">
-        <v>0.5422726515995386</v>
+        <v>-0.1518871264373115</v>
       </c>
       <c r="D8">
-        <v>-0.5189381514912333</v>
+        <v>0.6739919410487543</v>
       </c>
       <c r="E8">
-        <v>0.02862414282379759</v>
+        <v>-0.7762815363045776</v>
       </c>
       <c r="F8">
-        <v>-0.5533547859102488</v>
+        <v>0.3164125546905633</v>
       </c>
       <c r="G8">
-        <v>-0.5489102215958721</v>
+        <v>-0.3271739050663976</v>
       </c>
       <c r="H8">
-        <v>-0.4448481757029197</v>
+        <v>-0.02048476394998176</v>
       </c>
       <c r="I8">
-        <v>0.02690137354000052</v>
+        <v>-0.2127001224869957</v>
       </c>
       <c r="J8">
-        <v>-0.4193803518497821</v>
+        <v>0.4202556444573522</v>
       </c>
       <c r="K8">
-        <v>-0.26392099008051</v>
+        <v>-0.7172359743794172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.5150269411385472</v>
+        <v>0.4557689582790598</v>
       </c>
       <c r="C9">
-        <v>0.1069220079766862</v>
+        <v>-0.5904602123394252</v>
       </c>
       <c r="D9">
-        <v>-0.5507670810504911</v>
+        <v>0.3133237512565939</v>
       </c>
       <c r="E9">
-        <v>-0.5116486142986025</v>
+        <v>-0.2922734890358775</v>
       </c>
       <c r="F9">
-        <v>-0.4156058644256302</v>
+        <v>0.03174319930480571</v>
       </c>
       <c r="G9">
-        <v>0.05472346949681112</v>
+        <v>-0.1816074007961622</v>
       </c>
       <c r="H9">
-        <v>-0.3891011948095263</v>
+        <v>0.4619887665788268</v>
       </c>
       <c r="I9">
-        <v>-0.2349650178232874</v>
+        <v>-0.677702336005105</v>
       </c>
       <c r="J9">
-        <v>-0.2330709237742658</v>
+        <v>-0.4787076084441998</v>
       </c>
       <c r="K9">
-        <v>-0.00665683755824481</v>
+        <v>0.0217635345248179</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.7528950230576259</v>
+        <v>0.05263077955959761</v>
       </c>
       <c r="C10">
-        <v>-0.4675642987962694</v>
+        <v>-0.2282858237622462</v>
       </c>
       <c r="D10">
-        <v>-0.4013424164891072</v>
+        <v>0.07358916134280719</v>
       </c>
       <c r="E10">
-        <v>0.04327102724283641</v>
+        <v>-0.1981114003528886</v>
       </c>
       <c r="F10">
-        <v>-0.3794741585856582</v>
+        <v>0.4887893022597114</v>
       </c>
       <c r="G10">
-        <v>-0.2336577996235951</v>
+        <v>-0.66628337303706</v>
       </c>
       <c r="H10">
-        <v>-0.2304317121927086</v>
+        <v>-0.4668677944257654</v>
       </c>
       <c r="I10">
-        <v>-0.003347872077366504</v>
+        <v>0.0367587368126151</v>
       </c>
       <c r="J10">
-        <v>-0.2071683925268235</v>
+        <v>0.4308682146449044</v>
       </c>
       <c r="K10">
-        <v>0.03478528783266921</v>
+        <v>-0.5521660975322077</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.7222580074198877</v>
+        <v>-0.04048362901978123</v>
       </c>
       <c r="C11">
-        <v>0.1555664930067342</v>
+        <v>-0.148967833008389</v>
       </c>
       <c r="D11">
-        <v>-0.3939873381658584</v>
+        <v>0.5081247119182288</v>
       </c>
       <c r="E11">
-        <v>-0.243911444251697</v>
+        <v>-0.6647154195027307</v>
       </c>
       <c r="F11">
-        <v>-0.2219477356151164</v>
+        <v>-0.4465785702453398</v>
       </c>
       <c r="G11">
-        <v>-0.006975566101301595</v>
+        <v>0.04865847696166339</v>
       </c>
       <c r="H11">
-        <v>-0.2065833137701255</v>
+        <v>0.4440470628108465</v>
       </c>
       <c r="I11">
-        <v>0.03484708564340039</v>
+        <v>-0.537905161068722</v>
       </c>
       <c r="J11">
-        <v>-0.112098516080499</v>
+        <v>0.043184942027632</v>
       </c>
       <c r="K11">
-        <v>-0.7471277126881882</v>
+        <v>-0.5779845695232899</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.63635720455717</v>
+        <v>0.4105434041732867</v>
       </c>
       <c r="C12">
-        <v>-0.1065121760779313</v>
+        <v>-0.6218506926145831</v>
       </c>
       <c r="D12">
-        <v>-0.2239310073700678</v>
+        <v>-0.4425505781572279</v>
       </c>
       <c r="E12">
-        <v>0.01893790174841439</v>
+        <v>0.0473149798382374</v>
       </c>
       <c r="F12">
-        <v>-0.177735271297875</v>
+        <v>0.4549520012956178</v>
       </c>
       <c r="G12">
-        <v>0.0582484221924541</v>
+        <v>-0.5339857823770855</v>
       </c>
       <c r="H12">
-        <v>-0.0859823477184973</v>
+        <v>0.0490399279556583</v>
       </c>
       <c r="I12">
-        <v>-0.7218231773674587</v>
+        <v>-0.5718645262454116</v>
       </c>
       <c r="J12">
-        <v>0.351476302423462</v>
+        <v>-0.5485922592969179</v>
       </c>
       <c r="K12">
-        <v>0.2071736477181808</v>
+        <v>-0.4491052268917529</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.3892314682600225</v>
+        <v>-0.7693935401736124</v>
       </c>
       <c r="C13">
-        <v>0.06279941057417548</v>
+        <v>0.1459153413254775</v>
       </c>
       <c r="D13">
-        <v>-0.1891719507161828</v>
+        <v>0.4647712972559156</v>
       </c>
       <c r="E13">
-        <v>0.04982729109261119</v>
+        <v>-0.5534317694698567</v>
       </c>
       <c r="F13">
-        <v>-0.08929569910996929</v>
+        <v>0.06806235376148591</v>
       </c>
       <c r="G13">
-        <v>-0.7280956803316543</v>
+        <v>-0.5727360234921517</v>
       </c>
       <c r="H13">
-        <v>0.3460949529956512</v>
+        <v>-0.5440820259364938</v>
       </c>
       <c r="I13">
-        <v>0.2016942567498672</v>
+        <v>-0.4440550875031011</v>
       </c>
       <c r="J13">
-        <v>-0.2325543060878318</v>
+        <v>0.02535838729264081</v>
       </c>
       <c r="K13">
-        <v>-0.09462383297994317</v>
+        <v>-0.4185058641442112</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.2883047256316092</v>
+        <v>0.4686825076086018</v>
       </c>
       <c r="C14">
-        <v>0.1059606994132624</v>
+        <v>-0.4751339043169681</v>
       </c>
       <c r="D14">
-        <v>-0.08291550451226179</v>
+        <v>0.07065005862124359</v>
       </c>
       <c r="E14">
-        <v>-0.7133295375514309</v>
+        <v>-0.5354744161948821</v>
       </c>
       <c r="F14">
-        <v>0.3619702442297547</v>
+        <v>-0.5148397146592043</v>
       </c>
       <c r="G14">
-        <v>0.2161125889389876</v>
+        <v>-0.4162329915462905</v>
       </c>
       <c r="H14">
-        <v>-0.2175217565100965</v>
+        <v>0.05563754433289661</v>
       </c>
       <c r="I14">
-        <v>-0.07974362579264968</v>
+        <v>-0.3895498918869886</v>
       </c>
       <c r="J14">
-        <v>0.5255726688676128</v>
+        <v>-0.2348462498295893</v>
       </c>
       <c r="K14">
-        <v>0.009783324924931003</v>
+        <v>-0.2330677508304915</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.1398967012588671</v>
+        <v>-0.1314778833858913</v>
       </c>
       <c r="C15">
-        <v>-0.6795646352580863</v>
+        <v>-0.491390100692549</v>
       </c>
       <c r="D15">
-        <v>0.3655623446106223</v>
+        <v>-0.5005762667226813</v>
       </c>
       <c r="E15">
-        <v>0.2276294702574565</v>
+        <v>-0.4276854338002652</v>
       </c>
       <c r="F15">
-        <v>-0.207551418609287</v>
+        <v>0.06526458055676462</v>
       </c>
       <c r="G15">
-        <v>-0.06964632646755847</v>
+        <v>-0.3882426736872964</v>
       </c>
       <c r="H15">
-        <v>0.5357346252024053</v>
+        <v>-0.2322070382480321</v>
       </c>
       <c r="I15">
-        <v>0.01990265495323332</v>
+        <v>-0.2297587853496132</v>
       </c>
       <c r="J15">
-        <v>-0.9642855654334886</v>
+        <v>-0.004017809390048199</v>
       </c>
       <c r="K15">
-        <v>0.1416101621793027</v>
+        <v>-0.2068782505554835</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3566212522130081</v>
+        <v>-0.8214918576534618</v>
       </c>
       <c r="C16">
-        <v>0.2408781669286367</v>
+        <v>-0.3153899680363674</v>
       </c>
       <c r="D16">
-        <v>-0.201669386063788</v>
+        <v>0.0507514009765645</v>
       </c>
       <c r="E16">
-        <v>-0.06160022198258297</v>
+        <v>-0.3984963183153982</v>
       </c>
       <c r="F16">
-        <v>0.5432011320559681</v>
+        <v>-0.2237230616704399</v>
       </c>
       <c r="G16">
-        <v>0.02751106584015389</v>
+        <v>-0.2333864793735483</v>
       </c>
       <c r="H16">
-        <v>-0.9567083695411626</v>
+        <v>-0.003432730633350201</v>
       </c>
       <c r="I16">
-        <v>0.1491932208263926</v>
+        <v>-0.2068164527447523</v>
       </c>
       <c r="J16">
-        <v>-0.1890811605093071</v>
+        <v>0.03439750131362879</v>
       </c>
       <c r="K16">
-        <v>0.2245932989571786</v>
+        <v>-0.1117882003602853</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.04106405508430477</v>
+        <v>-0.1916184654147471</v>
       </c>
       <c r="C17">
-        <v>-0.09020770983603157</v>
+        <v>-0.2610970501416325</v>
       </c>
       <c r="D17">
-        <v>0.574340261490599</v>
+        <v>-0.2257063334253913</v>
       </c>
       <c r="E17">
-        <v>0.04038188063500339</v>
+        <v>-0.2074730115238323</v>
       </c>
       <c r="F17">
-        <v>-0.9383177816753954</v>
+        <v>0.02541531183890031</v>
       </c>
       <c r="G17">
-        <v>0.1659231998015854</v>
+        <v>-0.1834151161956986</v>
       </c>
       <c r="H17">
-        <v>-0.1718522909907078</v>
+        <v>0.06051366967563049</v>
       </c>
       <c r="I17">
-        <v>0.2416723320200759</v>
+        <v>-0.08648366503955579</v>
       </c>
       <c r="J17">
-        <v>3.460418729544259</v>
+        <v>-0.7218431636765124</v>
       </c>
       <c r="K17">
-        <v>11.17747195935915</v>
+        <v>0.3515523344230068</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.09163038277596375</v>
+        <v>-0.391006794315346</v>
       </c>
       <c r="C18">
-        <v>0.5254518873873821</v>
+        <v>-0.1636115026980712</v>
       </c>
       <c r="D18">
-        <v>0.0563325815835081</v>
+        <v>0.0139786324205925</v>
       </c>
       <c r="E18">
-        <v>-0.9365688629075258</v>
+        <v>-0.1918362472955415</v>
       </c>
       <c r="F18">
-        <v>0.1700585035915123</v>
+        <v>0.0572003182841585</v>
       </c>
       <c r="G18">
-        <v>-0.1679855244347674</v>
+        <v>-0.0927561680037513</v>
       </c>
       <c r="H18">
-        <v>0.2455504661863651</v>
+        <v>-0.7272245131043231</v>
       </c>
       <c r="I18">
-        <v>3.464294580983429</v>
+        <v>0.3460729434546932</v>
       </c>
       <c r="J18">
-        <v>11.18135224550135</v>
+        <v>0.201598425542204</v>
       </c>
       <c r="K18">
-        <v>-6.985713389843351</v>
+        <v>-0.2325023628573693</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.4973635377343007</v>
+        <v>-0.08515414249483391</v>
       </c>
       <c r="C19">
-        <v>0.06375933282195359</v>
+        <v>-0.1357028389748903</v>
       </c>
       <c r="D19">
-        <v>-0.9409636838269499</v>
+        <v>0.063580512881866</v>
       </c>
       <c r="E19">
-        <v>0.1688409188229139</v>
+        <v>-0.07799002522352799</v>
       </c>
       <c r="F19">
-        <v>-0.1698908006129778</v>
+        <v>-0.7113492218702197</v>
       </c>
       <c r="G19">
-        <v>0.2437493795404109</v>
+        <v>0.3604912756438136</v>
       </c>
       <c r="H19">
-        <v>3.462492115281467</v>
+        <v>0.2166309751199393</v>
       </c>
       <c r="I19">
-        <v>11.17954330985222</v>
+        <v>-0.2176221556700758</v>
       </c>
       <c r="J19">
-        <v>-6.987519263848878</v>
+        <v>-0.07974820638986618</v>
       </c>
       <c r="K19">
-        <v>1.062479867090283</v>
+        <v>0.5255853093452406</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01533165888309251</v>
+        <v>0.006599316135260686</v>
       </c>
       <c r="C20">
-        <v>-0.9270286439345783</v>
+        <v>-0.04422512293018338</v>
       </c>
       <c r="D20">
-        <v>0.1646188094254909</v>
+        <v>-0.707757121489352</v>
       </c>
       <c r="E20">
-        <v>-0.1695859208010793</v>
+        <v>0.3720081569622825</v>
       </c>
       <c r="F20">
-        <v>0.2430357067905741</v>
+        <v>0.2266013130207488</v>
       </c>
       <c r="G20">
-        <v>3.461991373938583</v>
+        <v>-0.2075248563449846</v>
       </c>
       <c r="H20">
-        <v>11.17900002583154</v>
+        <v>-0.06958625005507357</v>
       </c>
       <c r="I20">
-        <v>-6.98805410991042</v>
+        <v>0.535704639373543</v>
       </c>
       <c r="J20">
-        <v>1.061943279934518</v>
+        <v>0.01991245014620172</v>
       </c>
       <c r="K20">
-        <v>2.66194379000753</v>
+        <v>-0.9642880344596554</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.709833574659644</v>
+        <v>-0.7166982138869662</v>
       </c>
       <c r="C21">
-        <v>0.09010584479324929</v>
+        <v>0.3852568536334627</v>
       </c>
       <c r="D21">
-        <v>-0.1590789551758438</v>
+        <v>0.2324833455662478</v>
       </c>
       <c r="E21">
-        <v>0.2326508172452194</v>
+        <v>-0.1994787518600091</v>
       </c>
       <c r="F21">
-        <v>3.456034814857401</v>
+        <v>-0.06211974320151087</v>
       </c>
       <c r="G21">
-        <v>11.17225693833956</v>
+        <v>0.5433130502604635</v>
       </c>
       <c r="H21">
-        <v>-6.994695621409734</v>
+        <v>0.0274896460385278</v>
       </c>
       <c r="I21">
-        <v>1.055300075443688</v>
+        <v>-0.9567049758125654</v>
       </c>
       <c r="J21">
-        <v>2.655295898749082</v>
+        <v>0.1491928915335271</v>
       </c>
       <c r="K21">
-        <v>-3.225576310723604</v>
+        <v>-0.1890812028962569</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1692392724498348</v>
+        <v>0.393088676545731</v>
       </c>
       <c r="C22">
-        <v>-0.2127872400912742</v>
+        <v>-0.2280862397134577</v>
       </c>
       <c r="D22">
-        <v>0.2163713956266418</v>
+        <v>-0.03098061376687999</v>
       </c>
       <c r="E22">
-        <v>3.430860022654862</v>
+        <v>0.556183865055313</v>
       </c>
       <c r="F22">
-        <v>11.14890444542556</v>
+        <v>0.04588023390429499</v>
       </c>
       <c r="G22">
-        <v>-7.0183600656016</v>
+        <v>-0.9399749968373727</v>
       </c>
       <c r="H22">
-        <v>1.031674022284302</v>
+        <v>0.1664217610521264</v>
       </c>
       <c r="I22">
-        <v>2.631669520854345</v>
+        <v>-0.1720021698333596</v>
       </c>
       <c r="J22">
-        <v>-3.249204480385829</v>
+        <v>0.2417173759938177</v>
       </c>
       <c r="K22">
-        <v>-6.16833013693094</v>
+        <v>3.460405193757214</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.3816815746763487</v>
+        <v>-0.04624814710146236</v>
       </c>
       <c r="C23">
-        <v>0.3082759148860789</v>
+        <v>-0.07986898787009689</v>
       </c>
       <c r="D23">
-        <v>3.478606630174156</v>
+        <v>0.5721345660038177</v>
       </c>
       <c r="E23">
-        <v>11.20269000122705</v>
+        <v>0.04762915267216453</v>
       </c>
       <c r="F23">
-        <v>-6.96523417782231</v>
+        <v>-0.9358396930474457</v>
       </c>
       <c r="G23">
-        <v>1.084849207164317</v>
+        <v>0.1702885276080668</v>
       </c>
       <c r="H23">
-        <v>2.684844483405562</v>
+        <v>-0.1681240356670705</v>
       </c>
       <c r="I23">
-        <v>-3.196030142741611</v>
+        <v>0.2455932274329881</v>
       </c>
       <c r="J23">
-        <v>-6.115155727291738</v>
+        <v>3.464285479899407</v>
       </c>
       <c r="K23">
-        <v>1.384844230713178</v>
+        <v>11.18135337575859</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.3175905072817775</v>
+        <v>-0.1079573375231783</v>
       </c>
       <c r="C24">
-        <v>3.467135489562088</v>
+        <v>0.5795613172422631</v>
       </c>
       <c r="D24">
-        <v>11.2039786754933</v>
+        <v>0.04323433175274041</v>
       </c>
       <c r="E24">
-        <v>-6.968743421085121</v>
+        <v>-0.9370572778160442</v>
       </c>
       <c r="F24">
-        <v>1.082873796336708</v>
+        <v>0.1683832514298564</v>
       </c>
       <c r="G24">
-        <v>2.682411331416741</v>
+        <v>-0.1699251223130246</v>
       </c>
       <c r="H24">
-        <v>-3.198330640960896</v>
+        <v>0.2437907617310267</v>
       </c>
       <c r="I24">
-        <v>-6.117494238650668</v>
+        <v>3.462476544250285</v>
       </c>
       <c r="J24">
-        <v>1.382516575936537</v>
+        <v>11.17954750175306</v>
       </c>
       <c r="K24">
-        <v>-0.1384332513066659</v>
+        <v>-6.987520132909714</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3.421540994125134</v>
+        <v>0.5311336433034021</v>
       </c>
       <c r="C25">
-        <v>11.22297838923491</v>
+        <v>0.05716937164511213</v>
       </c>
       <c r="D25">
-        <v>-6.982379537777515</v>
+        <v>-0.9412793872134672</v>
       </c>
       <c r="E25">
-        <v>1.084199994641718</v>
+        <v>0.1686881312417549</v>
       </c>
       <c r="F25">
-        <v>2.676897071915942</v>
+        <v>-0.1706387950628614</v>
       </c>
       <c r="G25">
-        <v>-3.200780620084476</v>
+        <v>0.2432900203881426</v>
       </c>
       <c r="H25">
-        <v>-6.121308782232121</v>
+        <v>3.461933260229601</v>
       </c>
       <c r="I25">
-        <v>1.379305948464088</v>
+        <v>11.17901265569152</v>
       </c>
       <c r="J25">
-        <v>-0.1419103359742027</v>
+        <v>-6.988056720065479</v>
       </c>
       <c r="K25">
-        <v>-1.260845421515345</v>
+        <v>1.061943790007521</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>11.29086276400319</v>
+        <v>0.2743644409200464</v>
       </c>
       <c r="C26">
-        <v>-7.015295317827391</v>
+        <v>-1.015792351845709</v>
       </c>
       <c r="D26">
-        <v>1.107771466225127</v>
+        <v>0.1791950968669904</v>
       </c>
       <c r="E26">
-        <v>2.674228618480634</v>
+        <v>-0.1810236846082162</v>
       </c>
       <c r="F26">
-        <v>-3.19030706408656</v>
+        <v>0.23733346130696</v>
       </c>
       <c r="G26">
-        <v>-6.117182367081877</v>
+        <v>3.455190172737624</v>
       </c>
       <c r="H26">
-        <v>1.38653705519455</v>
+        <v>11.1723711441922</v>
       </c>
       <c r="I26">
-        <v>-0.1361854246972962</v>
+        <v>-6.994699924556309</v>
       </c>
       <c r="J26">
-        <v>-1.254388904694484</v>
+        <v>1.055295898749073</v>
       </c>
       <c r="K26">
-        <v>0.4342048567541828</v>
+        <v>2.655297909674196</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-6.669033777989898</v>
+        <v>-0.9366589241891232</v>
       </c>
       <c r="C27">
-        <v>0.4482360845693293</v>
+        <v>0.12548681195156</v>
       </c>
       <c r="D27">
-        <v>2.722477489425908</v>
+        <v>-0.1973031062267937</v>
       </c>
       <c r="E27">
-        <v>-3.378484112143658</v>
+        <v>0.2121586691044214</v>
       </c>
       <c r="F27">
-        <v>-6.170868949111164</v>
+        <v>3.431837679823618</v>
       </c>
       <c r="G27">
-        <v>1.281115101779715</v>
+        <v>11.14870670000034</v>
       </c>
       <c r="H27">
-        <v>-0.2152031472323356</v>
+        <v>-7.018325977715696</v>
       </c>
       <c r="I27">
-        <v>-1.344366130259007</v>
+        <v>1.031669520854336</v>
       </c>
       <c r="J27">
-        <v>0.3495140239460918</v>
+        <v>2.631669740011971</v>
       </c>
       <c r="K27">
-        <v>0.6984190118132061</v>
+        <v>-3.249204357328729</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>4.210091393357278</v>
+        <v>-0.0434075226335145</v>
       </c>
       <c r="C28">
-        <v>-1.562937356575949</v>
+        <v>-0.1053985869673567</v>
       </c>
       <c r="D28">
-        <v>-3.794203326258527</v>
+        <v>0.2599052766237149</v>
       </c>
       <c r="E28">
-        <v>-4.255321313711127</v>
+        <v>3.485623235625116</v>
       </c>
       <c r="F28">
-        <v>0.938378492792465</v>
+        <v>11.20183258777963</v>
       </c>
       <c r="G28">
-        <v>-1.123619574124447</v>
+        <v>-6.96515079283568</v>
       </c>
       <c r="H28">
-        <v>-1.043879914871906</v>
+        <v>1.084844483405554</v>
       </c>
       <c r="I28">
-        <v>0.5876286236853809</v>
+        <v>2.684844077656189</v>
       </c>
       <c r="J28">
-        <v>0.4020489852805511</v>
+        <v>-3.196029947689526</v>
       </c>
       <c r="K28">
-        <v>0.8055862183420032</v>
+        <v>-6.115155769286821</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1.723883263261671</v>
+        <v>-0.09608399457165806</v>
       </c>
       <c r="C29">
-        <v>-0.4491589556872517</v>
+        <v>0.2484341360116468</v>
       </c>
       <c r="D29">
-        <v>-5.912074402456263</v>
+        <v>3.486911909891364</v>
       </c>
       <c r="E29">
-        <v>-0.219640700320221</v>
+        <v>11.19832334451682</v>
       </c>
       <c r="F29">
-        <v>0.4378993869796115</v>
+        <v>-6.967126203663289</v>
       </c>
       <c r="G29">
-        <v>-1.094424786823506</v>
+        <v>1.082411331416732</v>
       </c>
       <c r="H29">
-        <v>-0.1602844470244723</v>
+        <v>2.682543579436904</v>
       </c>
       <c r="I29">
-        <v>0.8058399289251741</v>
+        <v>-3.198368459048456</v>
       </c>
       <c r="J29">
-        <v>1.040125505920549</v>
+        <v>-6.117483424063463</v>
       </c>
       <c r="K29">
-        <v>0.275127559129517</v>
+        <v>1.382513483360895</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.484750630486928</v>
+        <v>0.2028396405746928</v>
       </c>
       <c r="C30">
-        <v>-7.130197388607401</v>
+        <v>3.505911623632969</v>
       </c>
       <c r="D30">
-        <v>0.7487790802283345</v>
+        <v>11.18468722782442</v>
       </c>
       <c r="E30">
-        <v>0.3439864961411943</v>
+        <v>-6.965800005358279</v>
       </c>
       <c r="F30">
-        <v>-1.613662268308823</v>
+        <v>1.076897071915933</v>
       </c>
       <c r="G30">
-        <v>0.1963194352318912</v>
+        <v>2.680093600313324</v>
       </c>
       <c r="H30">
-        <v>0.7760887394287744</v>
+        <v>-3.202183002629909</v>
       </c>
       <c r="I30">
-        <v>0.8284725312201942</v>
+        <v>-6.120694051535912</v>
       </c>
       <c r="J30">
-        <v>0.3741512868484866</v>
+        <v>1.379036398693358</v>
       </c>
       <c r="K30">
-        <v>-0.03044474960124607</v>
+        <v>-0.1417921561829058</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-5.699115766757235</v>
+        <v>3.573795998401251</v>
       </c>
       <c r="C31">
-        <v>-0.751282002186199</v>
+        <v>11.15177144777455</v>
       </c>
       <c r="D31">
-        <v>0.6201049495048274</v>
+        <v>-6.942228533774871</v>
       </c>
       <c r="E31">
-        <v>-1.036087793096089</v>
+        <v>1.074228618480625</v>
       </c>
       <c r="F31">
-        <v>-0.4095973037394214</v>
+        <v>2.69056715631124</v>
       </c>
       <c r="G31">
-        <v>0.8474512357624796</v>
+        <v>-3.198056587479665</v>
       </c>
       <c r="H31">
-        <v>1.045596513053973</v>
+        <v>-6.11346294480545</v>
       </c>
       <c r="I31">
-        <v>0.1466742623744866</v>
+        <v>1.384761309970264</v>
       </c>
       <c r="J31">
-        <v>-0.03424384045264928</v>
+        <v>-0.1353356393620442</v>
       </c>
       <c r="K31">
-        <v>0.0780717333310303</v>
+        <v>-1.254795143245824</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-4.080335362049181</v>
+        <v>11.49803298761204</v>
       </c>
       <c r="C32">
-        <v>-0.5857468708324438</v>
+        <v>-7.601763915430668</v>
       </c>
       <c r="D32">
-        <v>1.834329151395276</v>
+        <v>1.1224774894259</v>
       </c>
       <c r="E32">
-        <v>-1.357041519685224</v>
+        <v>2.502390108254142</v>
       </c>
       <c r="F32">
-        <v>-0.1256048869366352</v>
+        <v>-3.251743169508952</v>
       </c>
       <c r="G32">
-        <v>2.328765452824017</v>
+        <v>-6.218884898220285</v>
       </c>
       <c r="H32">
-        <v>0.04931054127267079</v>
+        <v>1.305743587435225</v>
       </c>
       <c r="I32">
-        <v>-0.5911396661132463</v>
+        <v>-0.2253128649265674</v>
       </c>
       <c r="J32">
-        <v>0.6016011712277189</v>
+        <v>-1.339485976053915</v>
       </c>
       <c r="K32">
-        <v>0.07539632269252369</v>
+        <v>0.3474223904461466</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-2.447367413194482</v>
+        <v>-3.83990860664272</v>
       </c>
       <c r="C33">
-        <v>0.4519714962710439</v>
+        <v>-3.162937356575958</v>
       </c>
       <c r="D33">
-        <v>0.6128170632468097</v>
+        <v>2.086670894139273</v>
       </c>
       <c r="E33">
-        <v>-0.2421374331595442</v>
+        <v>-1.336195534108915</v>
       </c>
       <c r="F33">
-        <v>1.336929655948621</v>
+        <v>-6.561621507207535</v>
       </c>
       <c r="G33">
-        <v>0.7760698493954675</v>
+        <v>0.3973271605431137</v>
       </c>
       <c r="H33">
-        <v>-0.2922754742890896</v>
+        <v>0.07517335046053297</v>
       </c>
       <c r="I33">
-        <v>0.1269031719677863</v>
+        <v>-1.101371376314626</v>
       </c>
       <c r="J33">
-        <v>0.2807341674315602</v>
+        <v>0.05105236391349158</v>
       </c>
       <c r="K33">
-        <v>0.1494610132816651</v>
+        <v>0.5655828397090688</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.4458934228143729</v>
+        <v>-3.323883263261679</v>
       </c>
       <c r="C34">
-        <v>-0.1134040234363881</v>
+        <v>5.431715264710548</v>
       </c>
       <c r="D34">
-        <v>0.6219785646361177</v>
+        <v>-2.992948622854051</v>
       </c>
       <c r="E34">
-        <v>1.295420901956078</v>
+        <v>-7.719640700320221</v>
       </c>
       <c r="F34">
-        <v>0.4046985847747094</v>
+        <v>1.958846121647172</v>
       </c>
       <c r="G34">
-        <v>-0.0413746297026984</v>
+        <v>0.02462847850893329</v>
       </c>
       <c r="H34">
-        <v>0.2229895216479358</v>
+        <v>-1.849284447024479</v>
       </c>
       <c r="I34">
-        <v>0.1458905693336053</v>
+        <v>0.4548433075581145</v>
       </c>
       <c r="J34">
-        <v>0.2100486538045048</v>
+        <v>0.8001221272876144</v>
       </c>
       <c r="K34">
-        <v>0.1736542934757928</v>
+        <v>0.7641275591295071</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04237791528613299</v>
+        <v>5.396123589910871</v>
       </c>
       <c r="C35">
-        <v>0.3807011644083477</v>
+        <v>-4.21107160900519</v>
       </c>
       <c r="D35">
-        <v>1.395049986006469</v>
+        <v>-6.751220919771665</v>
       </c>
       <c r="E35">
-        <v>0.4897000358310402</v>
+        <v>1.864933230808755</v>
       </c>
       <c r="F35">
-        <v>-0.117818221074342</v>
+        <v>-0.4946090029763837</v>
       </c>
       <c r="G35">
-        <v>0.2342969722710407</v>
+        <v>-1.492680564768116</v>
       </c>
       <c r="H35">
-        <v>0.1930577024050574</v>
+        <v>0.4250921180617149</v>
       </c>
       <c r="I35">
-        <v>0.1960185439830976</v>
+        <v>0.5884691525872596</v>
       </c>
       <c r="J35">
-        <v>0.1726172989400906</v>
-      </c>
-      <c r="K35">
-        <v>-0.0398378471157852</v>
+        <v>0.8631512868484768</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.7181631419195285</v>
+        <v>-2.779989987155023</v>
       </c>
       <c r="C36">
-        <v>1.212670387274311</v>
+        <v>-8.251282002186199</v>
       </c>
       <c r="D36">
-        <v>0.4332478174976867</v>
+        <v>2.141051684172388</v>
       </c>
       <c r="E36">
-        <v>0.01060673022851391</v>
+        <v>0.08296547223635042</v>
       </c>
       <c r="F36">
-        <v>0.2073371896668185</v>
+        <v>-2.098597303739428</v>
       </c>
       <c r="G36">
-        <v>0.1571488048670705</v>
+        <v>0.4964546143954201</v>
       </c>
       <c r="H36">
-        <v>0.2391537638524287</v>
+        <v>0.8055931344210387</v>
       </c>
       <c r="I36">
-        <v>0.1795895845973958</v>
-      </c>
-      <c r="J36">
-        <v>-0.0522078634240134</v>
-      </c>
-      <c r="K36">
-        <v>0.1554041927524065</v>
+        <v>0.6356742623744767</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.049089967442578</v>
+        <v>-11.58033536204918</v>
       </c>
       <c r="C37">
-        <v>0.8524940945699551</v>
+        <v>0.9351998638351169</v>
       </c>
       <c r="D37">
-        <v>-0.1034953623938322</v>
+        <v>2.953382416727715</v>
       </c>
       <c r="E37">
-        <v>0.0926409719578045</v>
+        <v>-3.046041519685231</v>
       </c>
       <c r="F37">
-        <v>0.2817820142332294</v>
+        <v>-0.4766015083036947</v>
       </c>
       <c r="G37">
-        <v>0.2471048324593182</v>
+        <v>2.088762074191083</v>
       </c>
       <c r="H37">
-        <v>0.1372923509155475</v>
-      </c>
-      <c r="I37">
-        <v>-0.0176548598599835</v>
-      </c>
-      <c r="J37">
-        <v>0.1749249672074162</v>
-      </c>
-      <c r="K37">
-        <v>0.05922484994728894</v>
+        <v>0.5383105412726609</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.499698792741737</v>
+        <v>-0.9264206785269218</v>
       </c>
       <c r="C38">
-        <v>-0.0441541421789331</v>
+        <v>1.571024761603483</v>
       </c>
       <c r="D38">
-        <v>-0.3287619841940873</v>
+        <v>-1.076182936753197</v>
       </c>
       <c r="E38">
-        <v>0.364049265015512</v>
+        <v>-0.5931340545266037</v>
       </c>
       <c r="F38">
-        <v>0.2996335898150517</v>
+        <v>1.096926277315687</v>
       </c>
       <c r="G38">
-        <v>-0.02422131480211695</v>
-      </c>
-      <c r="H38">
-        <v>-0.0602750603840726</v>
-      </c>
-      <c r="I38">
-        <v>0.1709439362303161</v>
-      </c>
-      <c r="J38">
-        <v>-0.0177576868546418</v>
-      </c>
-      <c r="K38">
-        <v>0.1805893421760477</v>
+        <v>1.265069849395458</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.8297131584907731</v>
+        <v>0.6731598425180665</v>
       </c>
       <c r="C39">
-        <v>-0.1093333813988623</v>
+        <v>-1.802404023436395</v>
       </c>
       <c r="D39">
-        <v>-0.149365504330538</v>
+        <v>0.2709819432690582</v>
       </c>
       <c r="E39">
-        <v>0.4098942053544007</v>
+        <v>1.055417523323143</v>
       </c>
       <c r="F39">
-        <v>0.118275380657624</v>
-      </c>
-      <c r="G39">
-        <v>-0.2053788393788762</v>
-      </c>
-      <c r="H39">
-        <v>0.1446257021677655</v>
-      </c>
-      <c r="I39">
-        <v>0.02702245046340312</v>
-      </c>
-      <c r="J39">
-        <v>0.1403712705894833</v>
+        <v>0.8936985847746995</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.1620838256790951</v>
+        <v>-1.73137791528614</v>
       </c>
       <c r="C40">
-        <v>0.07681641198134087</v>
+        <v>0.02970454304128821</v>
       </c>
       <c r="D40">
-        <v>0.1922801461665575</v>
+        <v>1.155046607373534</v>
       </c>
       <c r="E40">
-        <v>0.1301097104498279</v>
-      </c>
-      <c r="F40">
-        <v>-0.1147928477079057</v>
-      </c>
-      <c r="G40">
-        <v>0.1009473398404885</v>
-      </c>
-      <c r="H40">
-        <v>0.01371138136289382</v>
-      </c>
-      <c r="I40">
-        <v>0.1693893530264649</v>
+        <v>0.9787000358310303</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.3211787666311243</v>
+        <v>0.3671665205524689</v>
       </c>
       <c r="C41">
-        <v>0.112909106075748</v>
+        <v>0.9726670086413762</v>
       </c>
       <c r="D41">
-        <v>0.03134352168291979</v>
-      </c>
-      <c r="E41">
-        <v>-0.06584948318657535</v>
-      </c>
-      <c r="F41">
-        <v>0.08772013122193154</v>
-      </c>
-      <c r="G41">
-        <v>-0.03303126573478518</v>
-      </c>
-      <c r="H41">
-        <v>0.1652259373303855</v>
+        <v>0.9222478174976768</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.2286550815363005</v>
+        <v>0.8090865888096432</v>
       </c>
       <c r="C42">
-        <v>0.125655419861192</v>
-      </c>
-      <c r="D42">
-        <v>-0.1481903203942864</v>
-      </c>
-      <c r="E42">
-        <v>0.09894893000052302</v>
-      </c>
-      <c r="F42">
-        <v>0.009054851222852406</v>
-      </c>
-      <c r="G42">
-        <v>0.1525441991306069</v>
+        <v>1.341494094569945</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4490319412376911</v>
-      </c>
-      <c r="C43">
-        <v>-0.2127353874755186</v>
-      </c>
-      <c r="D43">
-        <v>-0.01681838433105656</v>
-      </c>
-      <c r="E43">
-        <v>0.08464627132846159</v>
-      </c>
-      <c r="F43">
-        <v>0.1583473431356911</v>
+        <v>1.988698792741727</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.1181141524322671</v>
-      </c>
-      <c r="C44">
-        <v>0.03707716401367983</v>
-      </c>
-      <c r="D44">
-        <v>-0.06405285468019969</v>
-      </c>
-      <c r="E44">
-        <v>0.2261740776897078</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>-0.0001442643046098147</v>
-      </c>
-      <c r="C45">
-        <v>-0.008000482844254697</v>
-      </c>
-      <c r="D45">
-        <v>0.2025442913845202</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.1064660537556523</v>
-      </c>
-      <c r="C46">
-        <v>0.1601369838950918</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.04651757380517277</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-0.05581773379672039</v>
+      </c>
+      <c r="C2">
+        <v>-0.5473915729937895</v>
+      </c>
+      <c r="D2">
+        <v>-0.6568500599083356</v>
+      </c>
+      <c r="E2">
+        <v>-0.3486774573447309</v>
+      </c>
+      <c r="F2">
+        <v>0.5768417817870565</v>
+      </c>
+      <c r="G2">
+        <v>-0.8066322958499446</v>
+      </c>
+      <c r="H2">
+        <v>0.2072413603908874</v>
+      </c>
+      <c r="I2">
+        <v>-0.3991637958746739</v>
+      </c>
+      <c r="J2">
+        <v>-0.09571888274908895</v>
+      </c>
+      <c r="K2">
+        <v>-0.2966996203891837</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>-0.9251031577428906</v>
+      </c>
+      <c r="C3">
+        <v>-0.1518871264373115</v>
+      </c>
+      <c r="D3">
+        <v>0.6739919410487543</v>
+      </c>
+      <c r="E3">
+        <v>-0.7762815363045776</v>
+      </c>
+      <c r="F3">
+        <v>0.3164125546905633</v>
+      </c>
+      <c r="G3">
+        <v>-0.3271739050663976</v>
+      </c>
+      <c r="H3">
+        <v>-0.02048476394998176</v>
+      </c>
+      <c r="I3">
+        <v>-0.2127001224869957</v>
+      </c>
+      <c r="J3">
+        <v>0.4202556444573522</v>
+      </c>
+      <c r="K3">
+        <v>-0.7172359743794172</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.4557689582790598</v>
+      </c>
+      <c r="C4">
+        <v>-0.5904602123394252</v>
+      </c>
+      <c r="D4">
+        <v>0.3133237512565939</v>
+      </c>
+      <c r="E4">
+        <v>-0.2922734890358775</v>
+      </c>
+      <c r="F4">
+        <v>0.03174319930480571</v>
+      </c>
+      <c r="G4">
+        <v>-0.1816074007961622</v>
+      </c>
+      <c r="H4">
+        <v>0.4619887665788268</v>
+      </c>
+      <c r="I4">
+        <v>-0.677702336005105</v>
+      </c>
+      <c r="J4">
+        <v>-0.4787076084441998</v>
+      </c>
+      <c r="K4">
+        <v>0.0217635345248179</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>0.05263077955959761</v>
+      </c>
+      <c r="C5">
+        <v>-0.2282858237622462</v>
+      </c>
+      <c r="D5">
+        <v>0.07358916134280719</v>
+      </c>
+      <c r="E5">
+        <v>-0.1981114003528886</v>
+      </c>
+      <c r="F5">
+        <v>0.4887893022597114</v>
+      </c>
+      <c r="G5">
+        <v>-0.66628337303706</v>
+      </c>
+      <c r="H5">
+        <v>-0.4668677944257654</v>
+      </c>
+      <c r="I5">
+        <v>0.0367587368126151</v>
+      </c>
+      <c r="J5">
+        <v>0.4308682146449044</v>
+      </c>
+      <c r="K5">
+        <v>-0.5521660975322077</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>-0.04048362901978123</v>
+      </c>
+      <c r="C6">
+        <v>-0.148967833008389</v>
+      </c>
+      <c r="D6">
+        <v>0.5081247119182288</v>
+      </c>
+      <c r="E6">
+        <v>-0.6647154195027307</v>
+      </c>
+      <c r="F6">
+        <v>-0.4465785702453398</v>
+      </c>
+      <c r="G6">
+        <v>0.04865847696166339</v>
+      </c>
+      <c r="H6">
+        <v>0.4440470628108465</v>
+      </c>
+      <c r="I6">
+        <v>-0.537905161068722</v>
+      </c>
+      <c r="J6">
+        <v>0.043184942027632</v>
+      </c>
+      <c r="K6">
+        <v>-0.5779845695232899</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.05581773379672039</v>
+        <v>0.4105434041732867</v>
       </c>
       <c r="C7">
-        <v>-0.5473915729937895</v>
+        <v>-0.6218506926145831</v>
       </c>
       <c r="D7">
-        <v>-0.6568500599083356</v>
+        <v>-0.4425505781572279</v>
       </c>
       <c r="E7">
-        <v>-0.3486774573447309</v>
+        <v>0.0473149798382374</v>
       </c>
       <c r="F7">
-        <v>0.5768417817870565</v>
+        <v>0.4549520012956178</v>
       </c>
       <c r="G7">
-        <v>-0.8066322958499446</v>
+        <v>-0.5339857823770855</v>
       </c>
       <c r="H7">
-        <v>0.2072413603908874</v>
+        <v>0.0490399279556583</v>
       </c>
       <c r="I7">
-        <v>-0.3991637958746739</v>
+        <v>-0.5718645262454116</v>
       </c>
       <c r="J7">
-        <v>-0.09571888274908895</v>
+        <v>-0.5485922592969179</v>
       </c>
       <c r="K7">
-        <v>-0.2966996203891837</v>
+        <v>-0.4491052268917529</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.9251031577428906</v>
+        <v>-0.7693935401736124</v>
       </c>
       <c r="C8">
-        <v>-0.1518871264373115</v>
+        <v>0.1459153413254775</v>
       </c>
       <c r="D8">
-        <v>0.6739919410487543</v>
+        <v>0.4647712972559156</v>
       </c>
       <c r="E8">
-        <v>-0.7762815363045776</v>
+        <v>-0.5534317694698567</v>
       </c>
       <c r="F8">
-        <v>0.3164125546905633</v>
+        <v>0.06806235376148591</v>
       </c>
       <c r="G8">
-        <v>-0.3271739050663976</v>
+        <v>-0.5727360234921517</v>
       </c>
       <c r="H8">
-        <v>-0.02048476394998176</v>
+        <v>-0.5440820259364938</v>
       </c>
       <c r="I8">
-        <v>-0.2127001224869957</v>
+        <v>-0.4440550875031011</v>
       </c>
       <c r="J8">
-        <v>0.4202556444573522</v>
+        <v>0.02535838729264081</v>
       </c>
       <c r="K8">
-        <v>-0.7172359743794172</v>
+        <v>-0.4185058641442112</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.4557689582790598</v>
+        <v>0.4686825076086018</v>
       </c>
       <c r="C9">
-        <v>-0.5904602123394252</v>
+        <v>-0.4751339043169681</v>
       </c>
       <c r="D9">
-        <v>0.3133237512565939</v>
+        <v>0.07065005862124359</v>
       </c>
       <c r="E9">
-        <v>-0.2922734890358775</v>
+        <v>-0.5354744161948821</v>
       </c>
       <c r="F9">
-        <v>0.03174319930480571</v>
+        <v>-0.5148397146592043</v>
       </c>
       <c r="G9">
-        <v>-0.1816074007961622</v>
+        <v>-0.4162329915462905</v>
       </c>
       <c r="H9">
-        <v>0.4619887665788268</v>
+        <v>0.05563754433289661</v>
       </c>
       <c r="I9">
-        <v>-0.677702336005105</v>
+        <v>-0.3895498918869886</v>
       </c>
       <c r="J9">
-        <v>-0.4787076084441998</v>
+        <v>-0.2348462498295893</v>
       </c>
       <c r="K9">
-        <v>0.0217635345248179</v>
+        <v>-0.2330677508304915</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.05263077955959761</v>
+        <v>-0.1314778833858913</v>
       </c>
       <c r="C10">
-        <v>-0.2282858237622462</v>
+        <v>-0.491390100692549</v>
       </c>
       <c r="D10">
-        <v>0.07358916134280719</v>
+        <v>-0.5005762667226813</v>
       </c>
       <c r="E10">
-        <v>-0.1981114003528886</v>
+        <v>-0.4276854338002652</v>
       </c>
       <c r="F10">
-        <v>0.4887893022597114</v>
+        <v>0.06526458055676462</v>
       </c>
       <c r="G10">
-        <v>-0.66628337303706</v>
+        <v>-0.3882426736872964</v>
       </c>
       <c r="H10">
-        <v>-0.4668677944257654</v>
+        <v>-0.2322070382480321</v>
       </c>
       <c r="I10">
-        <v>0.0367587368126151</v>
+        <v>-0.2297587853496132</v>
       </c>
       <c r="J10">
-        <v>0.4308682146449044</v>
+        <v>-0.004017809390048199</v>
       </c>
       <c r="K10">
-        <v>-0.5521660975322077</v>
+        <v>-0.2068782505554835</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.04048362901978123</v>
+        <v>-0.8214918576534618</v>
       </c>
       <c r="C11">
-        <v>-0.148967833008389</v>
+        <v>-0.3153899680363674</v>
       </c>
       <c r="D11">
-        <v>0.5081247119182288</v>
+        <v>0.0507514009765645</v>
       </c>
       <c r="E11">
-        <v>-0.6647154195027307</v>
+        <v>-0.3984963183153982</v>
       </c>
       <c r="F11">
-        <v>-0.4465785702453398</v>
+        <v>-0.2237230616704399</v>
       </c>
       <c r="G11">
-        <v>0.04865847696166339</v>
+        <v>-0.2333864793735483</v>
       </c>
       <c r="H11">
-        <v>0.4440470628108465</v>
+        <v>-0.003432730633350201</v>
       </c>
       <c r="I11">
-        <v>-0.537905161068722</v>
+        <v>-0.2068164527447523</v>
       </c>
       <c r="J11">
-        <v>0.043184942027632</v>
+        <v>0.03439750131362879</v>
       </c>
       <c r="K11">
-        <v>-0.5779845695232899</v>
+        <v>-0.1117882003602853</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.4105434041732867</v>
+        <v>-0.1916184654147471</v>
       </c>
       <c r="C12">
-        <v>-0.6218506926145831</v>
+        <v>-0.2610970501416325</v>
       </c>
       <c r="D12">
-        <v>-0.4425505781572279</v>
+        <v>-0.2257063334253913</v>
       </c>
       <c r="E12">
-        <v>0.0473149798382374</v>
+        <v>-0.2074730115238323</v>
       </c>
       <c r="F12">
-        <v>0.4549520012956178</v>
+        <v>0.02541531183890031</v>
       </c>
       <c r="G12">
-        <v>-0.5339857823770855</v>
+        <v>-0.1834151161956986</v>
       </c>
       <c r="H12">
-        <v>0.0490399279556583</v>
+        <v>0.06051366967563049</v>
       </c>
       <c r="I12">
-        <v>-0.5718645262454116</v>
+        <v>-0.08648366503955579</v>
       </c>
       <c r="J12">
-        <v>-0.5485922592969179</v>
+        <v>-0.7218431636765124</v>
       </c>
       <c r="K12">
-        <v>-0.4491052268917529</v>
+        <v>0.3515523344230068</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.7693935401736124</v>
+        <v>-0.391006794315346</v>
       </c>
       <c r="C13">
-        <v>0.1459153413254775</v>
+        <v>-0.1636115026980712</v>
       </c>
       <c r="D13">
-        <v>0.4647712972559156</v>
+        <v>0.0139786324205925</v>
       </c>
       <c r="E13">
-        <v>-0.5534317694698567</v>
+        <v>-0.1918362472955415</v>
       </c>
       <c r="F13">
-        <v>0.06806235376148591</v>
+        <v>0.0572003182841585</v>
       </c>
       <c r="G13">
-        <v>-0.5727360234921517</v>
+        <v>-0.0927561680037513</v>
       </c>
       <c r="H13">
-        <v>-0.5440820259364938</v>
+        <v>-0.7272245131043231</v>
       </c>
       <c r="I13">
-        <v>-0.4440550875031011</v>
+        <v>0.3460729434546932</v>
       </c>
       <c r="J13">
-        <v>0.02535838729264081</v>
+        <v>0.201598425542204</v>
       </c>
       <c r="K13">
-        <v>-0.4185058641442112</v>
+        <v>-0.2325023628573693</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.4686825076086018</v>
+        <v>-0.08515414249483391</v>
       </c>
       <c r="C14">
-        <v>-0.4751339043169681</v>
+        <v>-0.1357028389748903</v>
       </c>
       <c r="D14">
-        <v>0.07065005862124359</v>
+        <v>0.063580512881866</v>
       </c>
       <c r="E14">
-        <v>-0.5354744161948821</v>
+        <v>-0.07799002522352799</v>
       </c>
       <c r="F14">
-        <v>-0.5148397146592043</v>
+        <v>-0.7113492218702197</v>
       </c>
       <c r="G14">
-        <v>-0.4162329915462905</v>
+        <v>0.3604912756438136</v>
       </c>
       <c r="H14">
-        <v>0.05563754433289661</v>
+        <v>0.2166309751199393</v>
       </c>
       <c r="I14">
-        <v>-0.3895498918869886</v>
+        <v>-0.2176221556700758</v>
       </c>
       <c r="J14">
-        <v>-0.2348462498295893</v>
+        <v>-0.07974820638986618</v>
       </c>
       <c r="K14">
-        <v>-0.2330677508304915</v>
+        <v>0.5255853093452406</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.1314778833858913</v>
+        <v>0.006599316135260686</v>
       </c>
       <c r="C15">
-        <v>-0.491390100692549</v>
+        <v>-0.04422512293018338</v>
       </c>
       <c r="D15">
-        <v>-0.5005762667226813</v>
+        <v>-0.707757121489352</v>
       </c>
       <c r="E15">
-        <v>-0.4276854338002652</v>
+        <v>0.3720081569622825</v>
       </c>
       <c r="F15">
-        <v>0.06526458055676462</v>
+        <v>0.2266013130207488</v>
       </c>
       <c r="G15">
-        <v>-0.3882426736872964</v>
+        <v>-0.2075248563449846</v>
       </c>
       <c r="H15">
-        <v>-0.2322070382480321</v>
+        <v>-0.06958625005507357</v>
       </c>
       <c r="I15">
-        <v>-0.2297587853496132</v>
+        <v>0.535704639373543</v>
       </c>
       <c r="J15">
-        <v>-0.004017809390048199</v>
+        <v>0.01991245014620172</v>
       </c>
       <c r="K15">
-        <v>-0.2068782505554835</v>
+        <v>-0.9642880344596554</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.8214918576534618</v>
+        <v>-0.7166982138869662</v>
       </c>
       <c r="C16">
-        <v>-0.3153899680363674</v>
+        <v>0.3852568536334627</v>
       </c>
       <c r="D16">
-        <v>0.0507514009765645</v>
+        <v>0.2324833455662478</v>
       </c>
       <c r="E16">
-        <v>-0.3984963183153982</v>
+        <v>-0.1994787518600091</v>
       </c>
       <c r="F16">
-        <v>-0.2237230616704399</v>
+        <v>-0.06211974320151087</v>
       </c>
       <c r="G16">
-        <v>-0.2333864793735483</v>
+        <v>0.5433130502604635</v>
       </c>
       <c r="H16">
-        <v>-0.003432730633350201</v>
+        <v>0.0274896460385278</v>
       </c>
       <c r="I16">
-        <v>-0.2068164527447523</v>
+        <v>-0.9567049758125654</v>
       </c>
       <c r="J16">
-        <v>0.03439750131362879</v>
+        <v>0.1491928915335271</v>
       </c>
       <c r="K16">
-        <v>-0.1117882003602853</v>
+        <v>-0.1890812028962569</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.1916184654147471</v>
+        <v>0.393088676545731</v>
       </c>
       <c r="C17">
-        <v>-0.2610970501416325</v>
+        <v>-0.2280862397134577</v>
       </c>
       <c r="D17">
-        <v>-0.2257063334253913</v>
+        <v>-0.03098061376687999</v>
       </c>
       <c r="E17">
-        <v>-0.2074730115238323</v>
+        <v>0.556183865055313</v>
       </c>
       <c r="F17">
-        <v>0.02541531183890031</v>
+        <v>0.04588023390429499</v>
       </c>
       <c r="G17">
-        <v>-0.1834151161956986</v>
+        <v>-0.9399749968373727</v>
       </c>
       <c r="H17">
-        <v>0.06051366967563049</v>
+        <v>0.1664217610521264</v>
       </c>
       <c r="I17">
-        <v>-0.08648366503955579</v>
+        <v>-0.1720021698333596</v>
       </c>
       <c r="J17">
-        <v>-0.7218431636765124</v>
+        <v>0.2417173759938177</v>
       </c>
       <c r="K17">
-        <v>0.3515523344230068</v>
+        <v>3.460405193757214</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.391006794315346</v>
+        <v>-0.04624814710146236</v>
       </c>
       <c r="C18">
-        <v>-0.1636115026980712</v>
+        <v>-0.07986898787009689</v>
       </c>
       <c r="D18">
-        <v>0.0139786324205925</v>
+        <v>0.5721345660038177</v>
       </c>
       <c r="E18">
-        <v>-0.1918362472955415</v>
+        <v>0.04762915267216453</v>
       </c>
       <c r="F18">
-        <v>0.0572003182841585</v>
+        <v>-0.9358396930474457</v>
       </c>
       <c r="G18">
-        <v>-0.0927561680037513</v>
+        <v>0.1702885276080668</v>
       </c>
       <c r="H18">
-        <v>-0.7272245131043231</v>
+        <v>-0.1681240356670705</v>
       </c>
       <c r="I18">
-        <v>0.3460729434546932</v>
+        <v>0.2455932274329881</v>
       </c>
       <c r="J18">
-        <v>0.201598425542204</v>
+        <v>3.464285479899407</v>
       </c>
       <c r="K18">
-        <v>-0.2325023628573693</v>
+        <v>11.18135337575859</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.08515414249483391</v>
+        <v>-0.1079573375231783</v>
       </c>
       <c r="C19">
-        <v>-0.1357028389748903</v>
+        <v>0.5795613172422631</v>
       </c>
       <c r="D19">
-        <v>0.063580512881866</v>
+        <v>0.04323433175274041</v>
       </c>
       <c r="E19">
-        <v>-0.07799002522352799</v>
+        <v>-0.9370572778160442</v>
       </c>
       <c r="F19">
-        <v>-0.7113492218702197</v>
+        <v>0.1683832514298564</v>
       </c>
       <c r="G19">
-        <v>0.3604912756438136</v>
+        <v>-0.1699251223130246</v>
       </c>
       <c r="H19">
-        <v>0.2166309751199393</v>
+        <v>0.2437907617310267</v>
       </c>
       <c r="I19">
-        <v>-0.2176221556700758</v>
+        <v>3.462476544250285</v>
       </c>
       <c r="J19">
-        <v>-0.07974820638986618</v>
+        <v>11.17954750175306</v>
       </c>
       <c r="K19">
-        <v>0.5255853093452406</v>
+        <v>-10.55354447839628</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.006599316135260686</v>
+        <v>0.5311336433034021</v>
       </c>
       <c r="C20">
-        <v>-0.04422512293018338</v>
+        <v>0.05716937164511213</v>
       </c>
       <c r="D20">
-        <v>-0.707757121489352</v>
+        <v>-0.9412793872134672</v>
       </c>
       <c r="E20">
-        <v>0.3720081569622825</v>
+        <v>0.1686881312417549</v>
       </c>
       <c r="F20">
-        <v>0.2266013130207488</v>
+        <v>-0.1706387950628614</v>
       </c>
       <c r="G20">
-        <v>-0.2075248563449846</v>
+        <v>0.2432900203881426</v>
       </c>
       <c r="H20">
-        <v>-0.06958625005507357</v>
+        <v>3.461933260229601</v>
       </c>
       <c r="I20">
-        <v>0.535704639373543</v>
+        <v>11.17901265569152</v>
       </c>
       <c r="J20">
-        <v>0.01991245014620172</v>
+        <v>-10.55408106555205</v>
       </c>
       <c r="K20">
-        <v>-0.9642880344596554</v>
+        <v>3.591736416873264</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.7166982138869662</v>
+        <v>0.2743644409200464</v>
       </c>
       <c r="C21">
-        <v>0.3852568536334627</v>
+        <v>-1.015792351845709</v>
       </c>
       <c r="D21">
-        <v>0.2324833455662478</v>
+        <v>0.1791950968669904</v>
       </c>
       <c r="E21">
-        <v>-0.1994787518600091</v>
+        <v>-0.1810236846082162</v>
       </c>
       <c r="F21">
-        <v>-0.06211974320151087</v>
+        <v>0.23733346130696</v>
       </c>
       <c r="G21">
-        <v>0.5433130502604635</v>
+        <v>3.455190172737624</v>
       </c>
       <c r="H21">
-        <v>0.0274896460385278</v>
+        <v>11.1723711441922</v>
       </c>
       <c r="I21">
-        <v>-0.9567049758125654</v>
+        <v>-10.56072427004288</v>
       </c>
       <c r="J21">
-        <v>0.1491928915335271</v>
+        <v>3.585088525614815</v>
       </c>
       <c r="K21">
-        <v>-0.1890812028962569</v>
+        <v>5.612092582694223</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.393088676545731</v>
+        <v>-0.9366589241891232</v>
       </c>
       <c r="C22">
-        <v>-0.2280862397134577</v>
+        <v>0.12548681195156</v>
       </c>
       <c r="D22">
-        <v>-0.03098061376687999</v>
+        <v>-0.1973031062267937</v>
       </c>
       <c r="E22">
-        <v>0.556183865055313</v>
+        <v>0.2121586691044214</v>
       </c>
       <c r="F22">
-        <v>0.04588023390429499</v>
+        <v>3.431837679823618</v>
       </c>
       <c r="G22">
-        <v>-0.9399749968373727</v>
+        <v>11.14870670000034</v>
       </c>
       <c r="H22">
-        <v>0.1664217610521264</v>
+        <v>-10.58435032320227</v>
       </c>
       <c r="I22">
-        <v>-0.1720021698333596</v>
+        <v>3.561462147720078</v>
       </c>
       <c r="J22">
-        <v>0.2417173759938177</v>
+        <v>5.588464413031998</v>
       </c>
       <c r="K22">
-        <v>3.460405193757214</v>
+        <v>-3.00122212941249</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04624814710146236</v>
+        <v>-0.0434075226335145</v>
       </c>
       <c r="C23">
-        <v>-0.07986898787009689</v>
+        <v>-0.1053985869673567</v>
       </c>
       <c r="D23">
-        <v>0.5721345660038177</v>
+        <v>0.2599052766237149</v>
       </c>
       <c r="E23">
-        <v>0.04762915267216453</v>
+        <v>3.485623235625116</v>
       </c>
       <c r="F23">
-        <v>-0.9358396930474457</v>
+        <v>11.20183258777963</v>
       </c>
       <c r="G23">
-        <v>0.1702885276080668</v>
+        <v>-10.53117513832225</v>
       </c>
       <c r="H23">
-        <v>-0.1681240356670705</v>
+        <v>3.614637110271295</v>
       </c>
       <c r="I23">
-        <v>0.2455932274329881</v>
+        <v>5.641638750676216</v>
       </c>
       <c r="J23">
-        <v>3.464285479899407</v>
+        <v>-2.948047719773287</v>
       </c>
       <c r="K23">
-        <v>11.18135337575859</v>
+        <v>-5.922262233519937</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.1079573375231783</v>
+        <v>-0.09608399457165806</v>
       </c>
       <c r="C24">
-        <v>0.5795613172422631</v>
+        <v>0.2484341360116468</v>
       </c>
       <c r="D24">
-        <v>0.04323433175274041</v>
+        <v>3.486911909891364</v>
       </c>
       <c r="E24">
-        <v>-0.9370572778160442</v>
+        <v>11.19832334451682</v>
       </c>
       <c r="F24">
-        <v>0.1683832514298564</v>
+        <v>-10.53315054914986</v>
       </c>
       <c r="G24">
-        <v>-0.1699251223130246</v>
+        <v>3.612203958282474</v>
       </c>
       <c r="H24">
-        <v>0.2437907617310267</v>
+        <v>5.639338252456931</v>
       </c>
       <c r="I24">
-        <v>3.462476544250285</v>
+        <v>-2.950386231132217</v>
       </c>
       <c r="J24">
-        <v>11.17954750175306</v>
+        <v>-5.924589888296579</v>
       </c>
       <c r="K24">
-        <v>-6.987520132909714</v>
+        <v>2.033230801192331</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.5311336433034021</v>
+        <v>0.2028396405746928</v>
       </c>
       <c r="C25">
-        <v>0.05716937164511213</v>
+        <v>3.505911623632969</v>
       </c>
       <c r="D25">
-        <v>-0.9412793872134672</v>
+        <v>11.18468722782442</v>
       </c>
       <c r="E25">
-        <v>0.1686881312417549</v>
+        <v>-10.53182435084485</v>
       </c>
       <c r="F25">
-        <v>-0.1706387950628614</v>
+        <v>3.606689698781675</v>
       </c>
       <c r="G25">
-        <v>0.2432900203881426</v>
+        <v>5.636888273333351</v>
       </c>
       <c r="H25">
-        <v>3.461933260229601</v>
+        <v>-2.95420077471367</v>
       </c>
       <c r="I25">
-        <v>11.17901265569152</v>
+        <v>-5.927800515769027</v>
       </c>
       <c r="J25">
-        <v>-6.988056720065479</v>
+        <v>2.029753716524794</v>
       </c>
       <c r="K25">
-        <v>1.061943790007521</v>
+        <v>0.4138493438119287</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.2743644409200464</v>
+        <v>3.573795998401251</v>
       </c>
       <c r="C26">
-        <v>-1.015792351845709</v>
+        <v>11.15177144777455</v>
       </c>
       <c r="D26">
-        <v>0.1791950968669904</v>
+        <v>-10.50825287926144</v>
       </c>
       <c r="E26">
-        <v>-0.1810236846082162</v>
+        <v>3.604021245346367</v>
       </c>
       <c r="F26">
-        <v>0.23733346130696</v>
+        <v>5.647361829331267</v>
       </c>
       <c r="G26">
-        <v>3.455190172737624</v>
+        <v>-2.950074359563426</v>
       </c>
       <c r="H26">
-        <v>11.1723711441922</v>
+        <v>-5.920569409038565</v>
       </c>
       <c r="I26">
-        <v>-6.994699924556309</v>
+        <v>2.0354786278017</v>
       </c>
       <c r="J26">
-        <v>1.055295898749073</v>
+        <v>0.4203058606327903</v>
       </c>
       <c r="K26">
-        <v>2.655297909674196</v>
+        <v>-0.5328279493927635</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.9366589241891232</v>
+        <v>11.49803298761204</v>
       </c>
       <c r="C27">
-        <v>0.12548681195156</v>
+        <v>-11.16778826091724</v>
       </c>
       <c r="D27">
-        <v>-0.1973031062267937</v>
+        <v>3.652270116291641</v>
       </c>
       <c r="E27">
-        <v>0.2121586691044214</v>
+        <v>5.459184781274169</v>
       </c>
       <c r="F27">
-        <v>3.431837679823618</v>
+        <v>-3.003760941592714</v>
       </c>
       <c r="G27">
-        <v>11.14870670000034</v>
+        <v>-6.0259913624534</v>
       </c>
       <c r="H27">
-        <v>-7.018325977715696</v>
+        <v>1.956460905266661</v>
       </c>
       <c r="I27">
-        <v>1.031669520854336</v>
+        <v>0.3303286350682671</v>
       </c>
       <c r="J27">
-        <v>2.631669740011971</v>
+        <v>-0.6175187822008543</v>
       </c>
       <c r="K27">
-        <v>-3.249204357328729</v>
+        <v>-0.8395061018171304</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.0434075226335145</v>
+        <v>-31.74226115630418</v>
       </c>
       <c r="C28">
-        <v>-0.1053985869673567</v>
+        <v>-40.64510151823153</v>
       </c>
       <c r="D28">
-        <v>0.2599052766237149</v>
+        <v>-84.96829092259522</v>
       </c>
       <c r="E28">
-        <v>3.485623235625116</v>
+        <v>-188.8873844789122</v>
       </c>
       <c r="F28">
-        <v>11.20183258777963</v>
+        <v>-387.16196447302</v>
       </c>
       <c r="G28">
-        <v>-6.96515079283568</v>
+        <v>-779.5842518709635</v>
       </c>
       <c r="H28">
-        <v>1.084844483405554</v>
+        <v>-1601.913155304116</v>
       </c>
       <c r="I28">
-        <v>2.684844077656189</v>
+        <v>-3285.225214055481</v>
       </c>
       <c r="J28">
-        <v>-3.196029947689526</v>
+        <v>-6734.060481503618</v>
       </c>
       <c r="K28">
-        <v>-6.115155769286821</v>
+        <v>-13801.23084055187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.09608399457165806</v>
+        <v>2.588371274139809</v>
       </c>
       <c r="C29">
-        <v>0.2484341360116468</v>
+        <v>1.189131798197628</v>
       </c>
       <c r="D29">
-        <v>3.486911909891364</v>
+        <v>-0.2207925066935772</v>
       </c>
       <c r="E29">
-        <v>11.19832334451682</v>
+        <v>-5.696752595669231</v>
       </c>
       <c r="F29">
-        <v>-6.967126203663289</v>
+        <v>0.4167639254935649</v>
       </c>
       <c r="G29">
-        <v>1.082411331416732</v>
+        <v>0.9778547244862631</v>
       </c>
       <c r="H29">
-        <v>2.682543579436904</v>
+        <v>-0.3680488597623142</v>
       </c>
       <c r="I29">
-        <v>-3.198368459048456</v>
+        <v>-1.353647473677421</v>
       </c>
       <c r="J29">
-        <v>-6.117483424063463</v>
+        <v>1.299212120211072</v>
       </c>
       <c r="K29">
-        <v>1.382513483360895</v>
+        <v>1.527371752458744</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.2028396405746928</v>
+        <v>4.61053524925082</v>
       </c>
       <c r="C30">
-        <v>3.505911623632969</v>
+        <v>-1.529153030752502</v>
       </c>
       <c r="D30">
-        <v>11.18468722782442</v>
+        <v>-6.743161391167371</v>
       </c>
       <c r="E30">
-        <v>-6.965800005358279</v>
+        <v>1.88470220984873</v>
       </c>
       <c r="F30">
-        <v>1.076897071915933</v>
+        <v>0.4996359077949845</v>
       </c>
       <c r="G30">
-        <v>2.680093600313324</v>
+        <v>-0.7863332765597271</v>
       </c>
       <c r="H30">
-        <v>-3.202183002629909</v>
+        <v>-0.8683021648540903</v>
       </c>
       <c r="I30">
-        <v>-6.120694051535912</v>
+        <v>1.184508707537068</v>
       </c>
       <c r="J30">
-        <v>1.379036398693358</v>
+        <v>1.364245747080425</v>
       </c>
       <c r="K30">
-        <v>-0.1417921561829058</v>
+        <v>0.1121785490952195</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3.573795998401251</v>
+        <v>1.648175614384109</v>
       </c>
       <c r="C31">
-        <v>11.15177144777455</v>
+        <v>-6.344801217633654</v>
       </c>
       <c r="D31">
-        <v>-6.942228533774871</v>
+        <v>-0.3470655811243679</v>
       </c>
       <c r="E31">
-        <v>1.074228618480625</v>
+        <v>1.844848965629835</v>
       </c>
       <c r="F31">
-        <v>2.69056715631124</v>
+        <v>-0.5663530190468888</v>
       </c>
       <c r="G31">
-        <v>-3.198056587479665</v>
+        <v>-1.77823393782141</v>
       </c>
       <c r="H31">
-        <v>-6.11346294480545</v>
+        <v>1.642274226101259</v>
       </c>
       <c r="I31">
-        <v>1.384761309970264</v>
+        <v>1.483371411513593</v>
       </c>
       <c r="J31">
-        <v>-0.1353356393620442</v>
+        <v>-0.2452225910611026</v>
       </c>
       <c r="K31">
-        <v>-1.254795143245824</v>
+        <v>0.5537160128941581</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>11.49803298761204</v>
+        <v>-5.468290532020105</v>
       </c>
       <c r="C32">
-        <v>-7.601763915430668</v>
+        <v>0.02728422973202682</v>
       </c>
       <c r="D32">
-        <v>1.1224774894259</v>
+        <v>1.07726790517686</v>
       </c>
       <c r="E32">
-        <v>2.502390108254142</v>
+        <v>-0.3294269695377619</v>
       </c>
       <c r="F32">
-        <v>-3.251743169508952</v>
+        <v>-1.530676321506708</v>
       </c>
       <c r="G32">
-        <v>-6.218884898220285</v>
+        <v>1.319268070656312</v>
       </c>
       <c r="H32">
-        <v>1.305743587435225</v>
+        <v>1.518342015034002</v>
       </c>
       <c r="I32">
-        <v>-0.2253128649265674</v>
+        <v>-0.1233809309750702</v>
       </c>
       <c r="J32">
-        <v>-1.339485976053915</v>
+        <v>0.4229998749900838</v>
       </c>
       <c r="K32">
-        <v>0.3474223904461466</v>
+        <v>-0.0489455787519997</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-3.83990860664272</v>
+        <v>-3.663304960865298</v>
       </c>
       <c r="C33">
-        <v>-3.162937356575958</v>
+        <v>0.1698174362740104</v>
       </c>
       <c r="D33">
-        <v>2.086670894139273</v>
+        <v>2.63964069778992</v>
       </c>
       <c r="E33">
-        <v>-1.336195534108915</v>
+        <v>-2.703014602200622</v>
       </c>
       <c r="F33">
-        <v>-6.561621507207535</v>
+        <v>0.4012126177109419</v>
       </c>
       <c r="G33">
-        <v>0.3973271605431137</v>
+        <v>2.924278173737123</v>
       </c>
       <c r="H33">
-        <v>0.07517335046053297</v>
+        <v>-0.3108746148550688</v>
       </c>
       <c r="I33">
-        <v>-1.101371376314626</v>
+        <v>-0.1560080564019318</v>
       </c>
       <c r="J33">
-        <v>0.05105236391349158</v>
+        <v>0.5515923408142583</v>
       </c>
       <c r="K33">
-        <v>0.5655828397090688</v>
+        <v>0.581343083036048</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-3.323883263261679</v>
+        <v>-1.504317838256901</v>
       </c>
       <c r="C34">
-        <v>5.431715264710548</v>
+        <v>1.337833267241795</v>
       </c>
       <c r="D34">
-        <v>-2.992948622854051</v>
+        <v>-0.8833271562141933</v>
       </c>
       <c r="E34">
-        <v>-7.719640700320221</v>
+        <v>0.3014494303161015</v>
       </c>
       <c r="F34">
-        <v>1.958846121647172</v>
+        <v>1.959991989128424</v>
       </c>
       <c r="G34">
-        <v>0.02462847850893329</v>
+        <v>0.3735354644994391</v>
       </c>
       <c r="H34">
-        <v>-1.849284447024479</v>
+        <v>0.134184683747093</v>
       </c>
       <c r="I34">
-        <v>0.4548433075581145</v>
+        <v>0.06846719702393569</v>
       </c>
       <c r="J34">
-        <v>0.8001221272876144</v>
+        <v>0.7703065374870059</v>
       </c>
       <c r="K34">
-        <v>0.7641275591295071</v>
+        <v>0.3349492232569318</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>5.396123589910871</v>
+        <v>0.3809268652950146</v>
       </c>
       <c r="C35">
-        <v>-4.21107160900519</v>
+        <v>-1.062597815428064</v>
       </c>
       <c r="D35">
-        <v>-6.751220919771665</v>
+        <v>0.9609596358326166</v>
       </c>
       <c r="E35">
-        <v>1.864933230808755</v>
+        <v>1.766554013456969</v>
       </c>
       <c r="F35">
-        <v>-0.4946090029763837</v>
+        <v>0.2119124869916083</v>
       </c>
       <c r="G35">
-        <v>-1.492680564768116</v>
+        <v>0.3914777132169585</v>
       </c>
       <c r="H35">
-        <v>0.4250921180617149</v>
+        <v>0.08428083524541322</v>
       </c>
       <c r="I35">
-        <v>0.5884691525872596</v>
+        <v>0.7018501536565724</v>
       </c>
       <c r="J35">
-        <v>0.8631512868484768</v>
+        <v>0.4347154764473077</v>
+      </c>
+      <c r="K35">
+        <v>-0.02351860326519539</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-2.779989987155023</v>
+        <v>-1.291219108254105</v>
       </c>
       <c r="C36">
-        <v>-8.251282002186199</v>
+        <v>1.276262556414095</v>
       </c>
       <c r="D36">
-        <v>2.141051684172388</v>
+        <v>1.725915518726099</v>
       </c>
       <c r="E36">
-        <v>0.08296547223635042</v>
+        <v>0.1020537525047304</v>
       </c>
       <c r="F36">
-        <v>-2.098597303739428</v>
+        <v>0.484874789760885</v>
       </c>
       <c r="G36">
-        <v>0.4964546143954201</v>
+        <v>0.1041746699282027</v>
       </c>
       <c r="H36">
-        <v>0.8055931344210387</v>
+        <v>0.6645262233091969</v>
       </c>
       <c r="I36">
-        <v>0.6356742623744767</v>
+        <v>0.4617342149856471</v>
+      </c>
+      <c r="J36">
+        <v>-0.003051480595229528</v>
+      </c>
+      <c r="K36">
+        <v>0.1841987868747267</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-11.58033536204918</v>
+        <v>0.6221726323844343</v>
       </c>
       <c r="C37">
-        <v>0.9351998638351169</v>
+        <v>1.494781560118084</v>
       </c>
       <c r="D37">
-        <v>2.953382416727715</v>
+        <v>0.5353283878360338</v>
       </c>
       <c r="E37">
-        <v>-3.046041519685231</v>
+        <v>0.404559750679843</v>
       </c>
       <c r="F37">
-        <v>-0.4766015083036947</v>
+        <v>-0.0229231473799239</v>
       </c>
       <c r="G37">
-        <v>2.088762074191083</v>
+        <v>0.7901778286129668</v>
       </c>
       <c r="H37">
-        <v>0.5383105412726609</v>
+        <v>0.4849775516380893</v>
+      </c>
+      <c r="I37">
+        <v>-0.04297908776070761</v>
+      </c>
+      <c r="J37">
+        <v>0.2209481387331484</v>
+      </c>
+      <c r="K37">
+        <v>-0.2064385185330479</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.9264206785269218</v>
+        <v>1.90910674173829</v>
       </c>
       <c r="C38">
-        <v>1.571024761603483</v>
+        <v>0.5586041956672487</v>
       </c>
       <c r="D38">
-        <v>-1.076182936753197</v>
+        <v>0.1472302427826596</v>
       </c>
       <c r="E38">
-        <v>-0.5931340545266037</v>
+        <v>0.03511703705012928</v>
       </c>
       <c r="F38">
-        <v>1.096926277315687</v>
+        <v>0.8216223164352902</v>
       </c>
       <c r="G38">
-        <v>1.265069849395458</v>
+        <v>0.3858632222142446</v>
+      </c>
+      <c r="H38">
+        <v>-0.06607144794128242</v>
+      </c>
+      <c r="I38">
+        <v>0.2200685944022238</v>
+      </c>
+      <c r="J38">
+        <v>-0.2527997818081062</v>
+      </c>
+      <c r="K38">
+        <v>0.1785541322799457</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.6731598425180665</v>
+        <v>1.716774675529492</v>
       </c>
       <c r="C39">
-        <v>-1.802404023436395</v>
+        <v>0.3786798473076645</v>
       </c>
       <c r="D39">
-        <v>0.2709819432690582</v>
+        <v>-0.6328570975849412</v>
       </c>
       <c r="E39">
-        <v>1.055417523323143</v>
+        <v>0.9901293170382752</v>
       </c>
       <c r="F39">
-        <v>0.8936985847746995</v>
+        <v>0.5478819930661875</v>
+      </c>
+      <c r="G39">
+        <v>-0.2673186325082821</v>
+      </c>
+      <c r="H39">
+        <v>0.1954720602554293</v>
+      </c>
+      <c r="I39">
+        <v>-0.2027706590859267</v>
+      </c>
+      <c r="J39">
+        <v>0.1155080390150202</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1.73137791528614</v>
+        <v>0.8056272295330942</v>
       </c>
       <c r="C40">
-        <v>0.02970454304128821</v>
+        <v>-0.0894815480977412</v>
       </c>
       <c r="D40">
-        <v>1.155046607373534</v>
+        <v>0.54154765237212</v>
       </c>
       <c r="E40">
-        <v>0.9787000358310303</v>
+        <v>0.5268883006438684</v>
+      </c>
+      <c r="F40">
+        <v>-0.06146750225793021</v>
+      </c>
+      <c r="G40">
+        <v>0.1052080132037799</v>
+      </c>
+      <c r="H40">
+        <v>-0.2492436501073992</v>
+      </c>
+      <c r="I40">
+        <v>0.1772168292258533</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.3671665205524689</v>
+        <v>0.1978017424879537</v>
       </c>
       <c r="C41">
-        <v>0.9726670086413762</v>
+        <v>0.6937406683482794</v>
       </c>
       <c r="D41">
-        <v>0.9222478174976768</v>
+        <v>0.2760074947938922</v>
+      </c>
+      <c r="E41">
+        <v>-0.06093145584058521</v>
+      </c>
+      <c r="F41">
+        <v>0.1575791974635654</v>
+      </c>
+      <c r="G41">
+        <v>-0.3294107304279835</v>
+      </c>
+      <c r="H41">
+        <v>0.1385093145894519</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.8090865888096432</v>
+        <v>0.6982206801489567</v>
       </c>
       <c r="C42">
-        <v>1.341494094569945</v>
+        <v>0.3691182209870959</v>
+      </c>
+      <c r="D42">
+        <v>-0.09625945923459173</v>
+      </c>
+      <c r="E42">
+        <v>0.1458522239115175</v>
+      </c>
+      <c r="F42">
+        <v>-0.2977303616964689</v>
+      </c>
+      <c r="G42">
+        <v>0.139414645872559</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.988698792741727</v>
+        <v>0.6117199542751215</v>
+      </c>
+      <c r="C43">
+        <v>0.07605517500675096</v>
+      </c>
+      <c r="D43">
+        <v>-0.05232970576229962</v>
+      </c>
+      <c r="E43">
+        <v>-0.2878474107838094</v>
+      </c>
+      <c r="F43">
+        <v>0.2086013286589838</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.08198876371539859</v>
+      </c>
+      <c r="C44">
+        <v>0.2220644573643086</v>
+      </c>
+      <c r="D44">
+        <v>-0.4081653071146517</v>
+      </c>
+      <c r="E44">
+        <v>0.1625036928424248</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.379738246178843</v>
+      </c>
+      <c r="C45">
+        <v>-0.4581581756480262</v>
+      </c>
+      <c r="D45">
+        <v>0.1088026308066157</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.238834915520705</v>
+      </c>
+      <c r="C46">
+        <v>0.1797732226074773</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.008248047471870162</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
